--- a/Chek.xlsx
+++ b/Chek.xlsx
@@ -8,8 +8,8 @@
     <sheet state="visible" name="Test Case" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="Тест дата" sheetId="4" r:id="rId7"/>
     <sheet state="visible" name="Тест план " sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Чек Лист " sheetId="6" r:id="rId9"/>
-    <sheet state="visible" name="ДЗ 5" sheetId="7" r:id="rId10"/>
+    <sheet state="visible" name="ДЗ 5" sheetId="6" r:id="rId9"/>
+    <sheet state="visible" name="Чек Лист " sheetId="7" r:id="rId10"/>
     <sheet state="visible" name="ДЗ12" sheetId="8" r:id="rId11"/>
     <sheet state="visible" name="ДЗ 2" sheetId="9" r:id="rId12"/>
     <sheet state="visible" name="Д3 3" sheetId="10" r:id="rId13"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="392" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="261">
   <si>
     <t>Основные 5 требование к вакансии QA Manual :</t>
   </si>
@@ -421,132 +421,6 @@
   </si>
   <si>
     <t>Регистрацию на сайте + ссылка</t>
-  </si>
-  <si>
-    <t>Чек лист megogo</t>
-  </si>
-  <si>
-    <t>1.</t>
-  </si>
-  <si>
-    <t>Скачать приложение megogo с App Store</t>
-  </si>
-  <si>
-    <t>Легко получилось скачать эго из магазина.</t>
-  </si>
-  <si>
-    <t>2.</t>
-  </si>
-  <si>
-    <t>Пройти авторизацию через моб.номер</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Авторизация просто,быстро и понятно.Номер телефоная  явяется логином.Номер телефона нужно вводить с кодом страны через +38 </t>
-  </si>
-  <si>
-    <t>3.</t>
-  </si>
-  <si>
-    <t>Все элементы должны быть такого размера, чтобы пользователь мог попасть по ним</t>
-  </si>
-  <si>
-    <t>Иконка телеканалы больше в размере чем другие иконки.</t>
-  </si>
-  <si>
-    <t>4.</t>
-  </si>
-  <si>
-    <t>Изменение ориентации устройства не в режиме просмотра телеканала</t>
-  </si>
-  <si>
-    <t>Находясь на главной странице и перевервув телефон в горизонтальное положение не чего не происходит.</t>
-  </si>
-  <si>
-    <t>5.</t>
-  </si>
-  <si>
-    <t>Избраные телеканыли можно настроить под себя.</t>
-  </si>
-  <si>
-    <t>Можно составить свой рейтинг любимых телеканалов.</t>
-  </si>
-  <si>
-    <t>6.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Просмотр ТВ трансляции </t>
-  </si>
-  <si>
-    <t>Доступно</t>
-  </si>
-  <si>
-    <t>7.</t>
-  </si>
-  <si>
-    <t>Просмотр ТВ трансляции в записи</t>
-  </si>
-  <si>
-    <t>Очень удобно смотреть в записи если пропустил передачу или не хочешь смотреть рекламу просто перемотав.</t>
-  </si>
-  <si>
-    <t>8.</t>
-  </si>
-  <si>
-    <t>Возможность  просмотра в записи ТВ передачь за 15 дней</t>
-  </si>
-  <si>
-    <t>Есть возможность просмотра телепередачь в записи.Записи доступны за последние 15 дней.</t>
-  </si>
-  <si>
-    <t>9.</t>
-  </si>
-  <si>
-    <t>При сворачивания приложение изображение  не останавливается а становится как кртинка в картинки</t>
-  </si>
-  <si>
-    <t>При смахивание (закрытии) приложение.Изображение не останавливается а продолжается трансляция но уже в небольшом окне в углу экрана.</t>
-  </si>
-  <si>
-    <t>10.</t>
-  </si>
-  <si>
-    <t>Возможность горизонтального просмотра ТВ передачи</t>
-  </si>
-  <si>
-    <t>Можно смотреть телепередачу в весь размер экрана(Горизонтально)</t>
-  </si>
-  <si>
-    <t>11.</t>
-  </si>
-  <si>
-    <t>Приложение работает без подключения к интернету.</t>
-  </si>
-  <si>
-    <t>Только при подключение к интернету работает приложение.</t>
-  </si>
-  <si>
-    <t>UX Опыт : Кружочки сторис как в одной известной соц.сети</t>
-  </si>
-  <si>
-    <t>Это интересное решение так как очень похожа на сторис в инстаграме ...Таким образом приложение рассказывает про новинки.</t>
-  </si>
-  <si>
-    <t>UX Опыт:основное меню пролистывается с низу вверх</t>
-  </si>
-  <si>
-    <t>На телефоне очень удобно листать снизу вверх .</t>
-  </si>
-  <si>
-    <t>UI хорошо подобраны тёмные цвета приложение а бирюзовый цвет (контрасный) не режит глаз.</t>
-  </si>
-  <si>
-    <t>Цветавая гамма хорошо подобрана и на неё приятно смотреть.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Оплата Apple Pay подписки спорт каналов </t>
-  </si>
-  <si>
-    <t>К телефону привязана карта банка .Провести аплату очень легко и удобно.</t>
   </si>
   <si>
     <t>Домашнее задание 5</t>
@@ -758,6 +632,123 @@
 Поэтому можем констатировать: программа с окружение совместима но неудобна в использование. </t>
   </si>
   <si>
+    <t>Чек лист megogo</t>
+  </si>
+  <si>
+    <t>Скачать приложение megogo с App Store</t>
+  </si>
+  <si>
+    <t>Легко получилось скачать эго из магазина.</t>
+  </si>
+  <si>
+    <t>Пройти авторизацию через моб.номер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Авторизация просто,быстро и понятно.Номер телефоная  явяется логином.Номер телефона нужно вводить с кодом страны через +38 </t>
+  </si>
+  <si>
+    <t>Приложение работает без подключения к интернету.</t>
+  </si>
+  <si>
+    <t>Только при подключение к интернету работает приложение.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Просмотр ТВ трансляции </t>
+  </si>
+  <si>
+    <t>Доступно</t>
+  </si>
+  <si>
+    <t>Просмотр ТВ трансляции в записи</t>
+  </si>
+  <si>
+    <t>Очень удобно смотреть в записи если пропустил передачу или не хочешь смотреть рекламу просто перемотав.</t>
+  </si>
+  <si>
+    <t>Возможность  просмотра в записи ТВ передачь за 15 дней</t>
+  </si>
+  <si>
+    <t>Есть возможность просмотра телепередачь в записи.Записи доступны за последние 15 дней.</t>
+  </si>
+  <si>
+    <t>При сворачивания приложение изображение  не останавливается а становится как кртинка в картинки</t>
+  </si>
+  <si>
+    <t>При смахивание (закрытии) приложение.Изображение не останавливается а продолжается трансляция но уже в небольшом окне в углу экрана.</t>
+  </si>
+  <si>
+    <t>При блокировке экрана изображение становится на паузу.</t>
+  </si>
+  <si>
+    <t>При блокировке или звонке пользывателю.</t>
+  </si>
+  <si>
+    <t>Изменение ориентации устройства не в режиме просмотра телеканала</t>
+  </si>
+  <si>
+    <t>Находясь на главной странице и перевервув телефон в горизонтальное положение не чего не происходит.</t>
+  </si>
+  <si>
+    <t>Возможность горизонтального просмотра ТВ передачи</t>
+  </si>
+  <si>
+    <t>Можно смотреть телепередачу в весь размер экрана(Горизонтально)</t>
+  </si>
+  <si>
+    <t>Все элементы должны быть такого размера, чтобы пользователь мог попасть по ним</t>
+  </si>
+  <si>
+    <t>Иконка телеканалы больше в размере чем другие иконки.</t>
+  </si>
+  <si>
+    <t>Избраные телеканыли можно настроить под себя.</t>
+  </si>
+  <si>
+    <t>Можно составить свой рейтинг любимых телеканалов.</t>
+  </si>
+  <si>
+    <t>UX Опыт : Кружочки сторис как в одной известной соц.сети</t>
+  </si>
+  <si>
+    <t>Это интересное решение так как очень похожа на сторис в инстаграме ...Таким образом приложение рассказывает про новинки.</t>
+  </si>
+  <si>
+    <t>UX Опыт:основное меню пролистывается с низу вверх</t>
+  </si>
+  <si>
+    <t>На телефоне очень удобно листать снизу вверх .</t>
+  </si>
+  <si>
+    <t>UI хорошо подобраны тёмные цвета приложение а бирюзовый цвет (контрасный) не режит глаз.</t>
+  </si>
+  <si>
+    <t>Цветавая гамма хорошо подобрана и на неё приятно смотреть.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оплата Apple Pay подписки спорт каналов </t>
+  </si>
+  <si>
+    <t>К телефону привязана карта банка .Провести аплату очень легко и удобно.</t>
+  </si>
+  <si>
+    <t>Количество информации на гравном экране.</t>
+  </si>
+  <si>
+    <t>Просто и понятно под каждим элементом есть подпись.Главная траница не перегружена информацией.</t>
+  </si>
+  <si>
+    <t>Соответствие цены и содержимого, заявленного в приложении тому, что попадает к пользователю;</t>
+  </si>
+  <si>
+    <t>Согласно подписки.</t>
+  </si>
+  <si>
+    <t>Сохранение покупок при обновлении приложения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">При обновление покупки сограняются </t>
+  </si>
+  <si>
     <t xml:space="preserve">Домашнее задание </t>
   </si>
   <si>
@@ -790,13 +781,13 @@
     <t>2.Тестирование методом на основе опыта.</t>
   </si>
   <si>
-    <t>3.Нефункциональное тестирование.</t>
+    <t>3.Нефункциональное тестирование.(удобство использывания,надежность,безопастность)</t>
   </si>
   <si>
     <t>4.Аналитический и реактивный подход.</t>
   </si>
   <si>
-    <t>1.Мобильное приложение из App Store</t>
+    <t>1.Просмотри ТВ трансляции через иконку телеканали в приложение megog.Скаченое в AppStore.</t>
   </si>
   <si>
     <t>2.IOS 15.4.1</t>
@@ -814,7 +805,7 @@
     <t>3.Регистрация через моб.номер телефона.</t>
   </si>
   <si>
-    <t>2.Тест Анализ и Тест Дизайн-1 дня.</t>
+    <t>2.Тест Дизайн-1 дня.</t>
   </si>
   <si>
     <t>4.Выполнение тестов-1 дня.</t>
@@ -833,6 +824,12 @@
   </si>
   <si>
     <t>Проверить авторизацию пользывателя через моб.номер телефона как предлогает приложение.</t>
+  </si>
+  <si>
+    <t>In Scope:</t>
+  </si>
+  <si>
+    <t>К нефункциональномуу теститурованю мы покроем тестами в чек листе :удобство использывания приложения,надежность что при правильных условиях оно будет работать правильно.И так же в части безопастность оплтата подписки через AppPay.</t>
   </si>
   <si>
     <t>Домашнее задание 2</t>
@@ -1140,7 +1137,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -1221,22 +1218,6 @@
       <color rgb="FF0000FF"/>
     </font>
     <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Georgia"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="14.0"/>
-      <color rgb="FF071924"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
-      <sz val="11.0"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-    </font>
-    <font>
       <sz val="18.0"/>
       <color rgb="FF4285F4"/>
       <name val="Times New Roman"/>
@@ -1265,6 +1246,27 @@
       <sz val="14.0"/>
       <color rgb="FF0000FF"/>
       <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Georgia"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF071924"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color rgb="FF737373"/>
+      <name val="&quot;Trebuchet MS&quot;"/>
     </font>
     <font>
       <sz val="11.0"/>
@@ -1384,12 +1386,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF8F9FA"/>
-        <bgColor rgb="FFF8F9FA"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA4C2F4"/>
         <bgColor rgb="FFA4C2F4"/>
       </patternFill>
@@ -1422,6 +1418,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFEA9999"/>
         <bgColor rgb="FFEA9999"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F9FA"/>
+        <bgColor rgb="FFF8F9FA"/>
       </patternFill>
     </fill>
     <fill>
@@ -1519,7 +1521,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="200">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -1692,100 +1694,68 @@
     <xf borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="4" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="6" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="0" fillId="7" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="6" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="18" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="5" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="20" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="17" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="10" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="8" fillId="0" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="9" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="8" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="9" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="8" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="3" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="5" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="7" fontId="11" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="8" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="3" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="7" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="4" fontId="7" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="11" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="6" fillId="7" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="6" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="6" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="10" fillId="8" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="10" fillId="9" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="10" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
+    <xf borderId="9" fillId="10" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="10" fillId="11" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFill="1" applyFont="1"/>
-    <xf borderId="9" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="8" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="8" fillId="11" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -1793,135 +1763,188 @@
     <xf borderId="5" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="8" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="11" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="9" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="3" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="3" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="0" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="11" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="11" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="11" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="0" fillId="4" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="10" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="11" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="21" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="8" fillId="4" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="11" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="6" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="10" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="11" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="9" fillId="0" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="11" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="3" fillId="11" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="8" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="0" fontId="18" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="10" fillId="12" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="11" fillId="11" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="6" fillId="11" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="11" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="12" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="10" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="9" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="5" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="12" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="12" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="12" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="4" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="9" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="21" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="13" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="11" fillId="12" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="6" fillId="12" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="12" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="10" fillId="7" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="5" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="13" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="10" fillId="14" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="3" fillId="7" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="13" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="3" fillId="13" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="5" fillId="12" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="5" fillId="14" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="14" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="3" fillId="14" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="11" fillId="13" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="13" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="11" fillId="12" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="1" fillId="12" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="13" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="11" fillId="14" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
     <xf borderId="6" fillId="14" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="14" fontId="7" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf borderId="6" fillId="6" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="13" fontId="14" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="6" fillId="13" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="5" fillId="10" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="5" fontId="20" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="23" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
     <xf borderId="5" fillId="9" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="8" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+      <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="5" fillId="11" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
     <xf borderId="11" fillId="14" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="26" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="18" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="25" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="25" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="29" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="30" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="27" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="28" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1933,46 +1956,46 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="16" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center" readingOrder="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="33" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="5" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="34" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="31" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="35" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="32" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="36" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="37" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="38" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="22" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="5" fontId="39" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="19" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="40" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2329,169 +2352,169 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="179" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" ht="77.25" customHeight="1">
+      <c r="A2" s="180" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="2" ht="77.25" customHeight="1">
-      <c r="A2" s="173" t="s">
+    <row r="3">
+      <c r="A3" s="181"/>
+    </row>
+    <row r="4" ht="27.75" customHeight="1">
+      <c r="A4" s="175" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="174"/>
-    </row>
-    <row r="4" ht="27.75" customHeight="1">
-      <c r="A4" s="168" t="s">
+      <c r="C4" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="C4" s="12" t="s">
+    </row>
+    <row r="5">
+      <c r="A5" s="182" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="175" t="s">
+      <c r="B5" s="183"/>
+      <c r="C5" s="183"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="181" t="s">
         <v>217</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="176"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="174" t="s">
+      <c r="B6" s="183"/>
+    </row>
+    <row r="7" ht="26.25" customHeight="1">
+      <c r="A7" s="184" t="s">
         <v>218</v>
       </c>
-      <c r="B6" s="176"/>
-    </row>
-    <row r="7" ht="26.25" customHeight="1">
-      <c r="A7" s="177" t="s">
+    </row>
+    <row r="8">
+      <c r="A8" s="181" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="174" t="s">
+    <row r="9">
+      <c r="A9" s="184" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="177" t="s">
+    <row r="10">
+      <c r="A10" s="175" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="168" t="s">
+      <c r="B10" s="64"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="184" t="s">
         <v>222</v>
       </c>
-      <c r="B10" s="78"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="177" t="s">
+      <c r="B11" s="64"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="184" t="s">
         <v>223</v>
       </c>
-      <c r="B11" s="78"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="177" t="s">
+    </row>
+    <row r="13">
+      <c r="A13" s="184" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="177" t="s">
+    <row r="14" ht="27.75" customHeight="1">
+      <c r="A14" s="184" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="14" ht="27.75" customHeight="1">
-      <c r="A14" s="177" t="s">
+    <row r="15">
+      <c r="A15" s="184" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="177" t="s">
+    <row r="16">
+      <c r="A16" s="184" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="177" t="s">
+    <row r="17">
+      <c r="A17" s="181"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="185"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="179" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="174"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="178"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="172" t="s">
+    <row r="20">
+      <c r="A20" s="186" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" s="179" t="s">
+    <row r="21">
+      <c r="A21" s="184" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" s="177" t="s">
+    <row r="22">
+      <c r="A22" s="187" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="180" t="s">
-        <v>232</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="11" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="184" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" s="177" t="s">
+    <row r="25">
+      <c r="A25" s="184" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" s="177" t="s">
+    <row r="26">
+      <c r="A26" s="188" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" s="181" t="s">
+    <row r="27">
+      <c r="A27" s="176"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="176"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="179" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="169"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="169"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="172" t="s">
+    <row r="30">
+      <c r="A30" s="176"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="189" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" s="169"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="182" t="s">
+    <row r="32">
+      <c r="A32" s="176"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="190" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" s="169"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="183" t="s">
-        <v>239</v>
-      </c>
-    </row>
     <row r="34">
-      <c r="A34" s="169"/>
+      <c r="A34" s="176"/>
     </row>
     <row r="35">
-      <c r="A35" s="169"/>
+      <c r="A35" s="176"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2509,796 +2532,796 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="169"/>
-      <c r="B1" s="169"/>
-      <c r="C1" s="169"/>
-      <c r="D1" s="169"/>
-      <c r="E1" s="169"/>
-      <c r="F1" s="169"/>
-      <c r="G1" s="169"/>
-      <c r="H1" s="170"/>
-      <c r="I1" s="184" t="s">
+      <c r="A1" s="176"/>
+      <c r="B1" s="176"/>
+      <c r="C1" s="176"/>
+      <c r="D1" s="176"/>
+      <c r="E1" s="176"/>
+      <c r="F1" s="176"/>
+      <c r="G1" s="176"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="191" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" s="177"/>
+      <c r="K1" s="176"/>
+      <c r="L1" s="176"/>
+      <c r="M1" s="176"/>
+      <c r="N1" s="176"/>
+      <c r="O1" s="176"/>
+      <c r="P1" s="176"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="176"/>
+      <c r="B2" s="176"/>
+      <c r="C2" s="176"/>
+      <c r="D2" s="176"/>
+      <c r="E2" s="176"/>
+      <c r="F2" s="176"/>
+      <c r="G2" s="176"/>
+      <c r="H2" s="176"/>
+      <c r="I2" s="176"/>
+      <c r="J2" s="176"/>
+      <c r="K2" s="176"/>
+      <c r="L2" s="176"/>
+      <c r="M2" s="176"/>
+      <c r="N2" s="176"/>
+      <c r="O2" s="176"/>
+      <c r="P2" s="176"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="192"/>
+      <c r="D3" s="192"/>
+      <c r="E3" s="192"/>
+      <c r="F3" s="192"/>
+      <c r="G3" s="192"/>
+      <c r="H3" s="180" t="s">
         <v>240</v>
       </c>
-      <c r="J1" s="170"/>
-      <c r="K1" s="169"/>
-      <c r="L1" s="169"/>
-      <c r="M1" s="169"/>
-      <c r="N1" s="169"/>
-      <c r="O1" s="169"/>
-      <c r="P1" s="169"/>
-    </row>
-    <row r="2">
-      <c r="A2" s="169"/>
-      <c r="B2" s="169"/>
-      <c r="C2" s="169"/>
-      <c r="D2" s="169"/>
-      <c r="E2" s="169"/>
-      <c r="F2" s="169"/>
-      <c r="G2" s="169"/>
-      <c r="H2" s="169"/>
-      <c r="I2" s="169"/>
-      <c r="J2" s="169"/>
-      <c r="K2" s="169"/>
-      <c r="L2" s="169"/>
-      <c r="M2" s="169"/>
-      <c r="N2" s="169"/>
-      <c r="O2" s="169"/>
-      <c r="P2" s="169"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="169"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="185"/>
-      <c r="D3" s="185"/>
-      <c r="E3" s="185"/>
-      <c r="F3" s="185"/>
-      <c r="G3" s="185"/>
-      <c r="H3" s="173" t="s">
+      <c r="I3" s="192"/>
+      <c r="J3" s="192"/>
+      <c r="K3" s="192"/>
+      <c r="L3" s="192"/>
+      <c r="M3" s="192"/>
+      <c r="N3" s="176"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="176"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="177"/>
+      <c r="J4" s="177"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="176"/>
+      <c r="P4" s="176"/>
+      <c r="Q4" s="176"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="176"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="176"/>
+      <c r="I5" s="176"/>
+      <c r="J5" s="176"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="176"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="177"/>
+      <c r="I6" s="177"/>
+      <c r="J6" s="177"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="174"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="176"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="175" t="s">
         <v>241</v>
       </c>
-      <c r="I3" s="185"/>
-      <c r="J3" s="185"/>
-      <c r="K3" s="185"/>
-      <c r="L3" s="185"/>
-      <c r="M3" s="185"/>
-      <c r="N3" s="169"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="169"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="170"/>
-      <c r="J4" s="170"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="169"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="169"/>
-      <c r="I5" s="169"/>
-      <c r="J5" s="169"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="169"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="170"/>
-      <c r="J6" s="170"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="169"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="168" t="s">
+      <c r="J7" s="174"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="176"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="194"/>
+      <c r="E8" s="194"/>
+      <c r="F8" s="194"/>
+      <c r="G8" s="194"/>
+      <c r="H8" s="194"/>
+      <c r="I8" s="194"/>
+      <c r="J8" s="194"/>
+      <c r="K8" s="194"/>
+      <c r="L8" s="194"/>
+      <c r="M8" s="194"/>
+      <c r="N8" s="194"/>
+      <c r="O8" s="193"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="194"/>
+      <c r="F9" s="194"/>
+      <c r="G9" s="194"/>
+      <c r="H9" s="194"/>
+      <c r="I9" s="195" t="s">
         <v>242</v>
       </c>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="169"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="169"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="187"/>
-      <c r="E8" s="187"/>
-      <c r="F8" s="187"/>
-      <c r="G8" s="187"/>
-      <c r="H8" s="187"/>
-      <c r="I8" s="187"/>
-      <c r="J8" s="187"/>
-      <c r="K8" s="187"/>
-      <c r="L8" s="187"/>
-      <c r="M8" s="187"/>
-      <c r="N8" s="187"/>
-      <c r="O8" s="186"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="169"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="169"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="186"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="187"/>
-      <c r="H9" s="187"/>
-      <c r="I9" s="188" t="s">
+      <c r="J9" s="194"/>
+      <c r="K9" s="194"/>
+      <c r="L9" s="194"/>
+      <c r="M9" s="194"/>
+      <c r="N9" s="194"/>
+      <c r="O9" s="193"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="176"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="194"/>
+      <c r="H10" s="194"/>
+      <c r="I10" s="195" t="s">
         <v>243</v>
       </c>
-      <c r="J9" s="187"/>
-      <c r="K9" s="187"/>
-      <c r="L9" s="187"/>
-      <c r="M9" s="187"/>
-      <c r="N9" s="187"/>
-      <c r="O9" s="186"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="169"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="169"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="186"/>
-      <c r="D10" s="187"/>
-      <c r="E10" s="187"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="187"/>
-      <c r="H10" s="187"/>
-      <c r="I10" s="188" t="s">
+      <c r="J10" s="194"/>
+      <c r="K10" s="194"/>
+      <c r="L10" s="194"/>
+      <c r="M10" s="194"/>
+      <c r="N10" s="194"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="176"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="193"/>
+      <c r="D11" s="194"/>
+      <c r="E11" s="194"/>
+      <c r="F11" s="194"/>
+      <c r="G11" s="194"/>
+      <c r="H11" s="194"/>
+      <c r="I11" s="195" t="s">
         <v>244</v>
       </c>
-      <c r="J10" s="187"/>
-      <c r="K10" s="187"/>
-      <c r="L10" s="187"/>
-      <c r="M10" s="187"/>
-      <c r="N10" s="187"/>
-      <c r="O10" s="186"/>
-      <c r="P10" s="169"/>
-      <c r="Q10" s="169"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="169"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="186"/>
-      <c r="D11" s="187"/>
-      <c r="E11" s="187"/>
-      <c r="F11" s="187"/>
-      <c r="G11" s="187"/>
-      <c r="H11" s="187"/>
-      <c r="I11" s="188" t="s">
+      <c r="J11" s="194"/>
+      <c r="K11" s="194"/>
+      <c r="L11" s="194"/>
+      <c r="M11" s="194"/>
+      <c r="N11" s="194"/>
+      <c r="O11" s="193"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="176"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="194"/>
+      <c r="E12" s="194"/>
+      <c r="F12" s="194"/>
+      <c r="G12" s="194"/>
+      <c r="H12" s="194"/>
+      <c r="I12" s="195" t="s">
         <v>245</v>
       </c>
-      <c r="J11" s="187"/>
-      <c r="K11" s="187"/>
-      <c r="L11" s="187"/>
-      <c r="M11" s="187"/>
-      <c r="N11" s="187"/>
-      <c r="O11" s="186"/>
-      <c r="P11" s="169"/>
-      <c r="Q11" s="169"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="169"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="186"/>
-      <c r="D12" s="187"/>
-      <c r="E12" s="187"/>
-      <c r="F12" s="187"/>
-      <c r="G12" s="187"/>
-      <c r="H12" s="187"/>
-      <c r="I12" s="188" t="s">
+      <c r="J12" s="194"/>
+      <c r="K12" s="194"/>
+      <c r="L12" s="194"/>
+      <c r="M12" s="194"/>
+      <c r="N12" s="194"/>
+      <c r="O12" s="193"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="176"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="194"/>
+      <c r="E13" s="194"/>
+      <c r="F13" s="194"/>
+      <c r="G13" s="194"/>
+      <c r="H13" s="194"/>
+      <c r="I13" s="195" t="s">
         <v>246</v>
       </c>
-      <c r="J12" s="187"/>
-      <c r="K12" s="187"/>
-      <c r="L12" s="187"/>
-      <c r="M12" s="187"/>
-      <c r="N12" s="187"/>
-      <c r="O12" s="186"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="169"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="169"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="186"/>
-      <c r="D13" s="187"/>
-      <c r="E13" s="187"/>
-      <c r="F13" s="187"/>
-      <c r="G13" s="187"/>
-      <c r="H13" s="187"/>
-      <c r="I13" s="188" t="s">
+      <c r="J13" s="194"/>
+      <c r="K13" s="194"/>
+      <c r="L13" s="194"/>
+      <c r="M13" s="194"/>
+      <c r="N13" s="194"/>
+      <c r="O13" s="193"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="176"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="194"/>
+      <c r="E14" s="194"/>
+      <c r="F14" s="194"/>
+      <c r="G14" s="194"/>
+      <c r="H14" s="194"/>
+      <c r="I14" s="195" t="s">
         <v>247</v>
       </c>
-      <c r="J13" s="187"/>
-      <c r="K13" s="187"/>
-      <c r="L13" s="187"/>
-      <c r="M13" s="187"/>
-      <c r="N13" s="187"/>
-      <c r="O13" s="186"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="169"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="169"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="186"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="187"/>
-      <c r="F14" s="187"/>
-      <c r="G14" s="187"/>
-      <c r="H14" s="187"/>
-      <c r="I14" s="188" t="s">
+      <c r="J14" s="194"/>
+      <c r="K14" s="194"/>
+      <c r="L14" s="194"/>
+      <c r="M14" s="194"/>
+      <c r="N14" s="194"/>
+      <c r="O14" s="193"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="176"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="176"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="194"/>
+      <c r="E15" s="194"/>
+      <c r="F15" s="194"/>
+      <c r="G15" s="194"/>
+      <c r="H15" s="195" t="s">
         <v>248</v>
       </c>
-      <c r="J14" s="187"/>
-      <c r="K14" s="187"/>
-      <c r="L14" s="187"/>
-      <c r="M14" s="187"/>
-      <c r="N14" s="187"/>
-      <c r="O14" s="186"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="169"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="186"/>
-      <c r="D15" s="187"/>
-      <c r="E15" s="187"/>
-      <c r="F15" s="187"/>
-      <c r="G15" s="187"/>
-      <c r="H15" s="188" t="s">
+      <c r="I15" s="194"/>
+      <c r="J15" s="194"/>
+      <c r="K15" s="194"/>
+      <c r="L15" s="194"/>
+      <c r="M15" s="194"/>
+      <c r="N15" s="194"/>
+      <c r="O15" s="193"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="176"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="176"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="194"/>
+      <c r="F16" s="194"/>
+      <c r="G16" s="194"/>
+      <c r="H16" s="194"/>
+      <c r="I16" s="195" t="s">
         <v>249</v>
       </c>
-      <c r="I15" s="187"/>
-      <c r="J15" s="187"/>
-      <c r="K15" s="187"/>
-      <c r="L15" s="187"/>
-      <c r="M15" s="187"/>
-      <c r="N15" s="187"/>
-      <c r="O15" s="186"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="169"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="169"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="186"/>
-      <c r="D16" s="186"/>
-      <c r="E16" s="187"/>
-      <c r="F16" s="187"/>
-      <c r="G16" s="187"/>
-      <c r="H16" s="187"/>
-      <c r="I16" s="188" t="s">
+      <c r="J16" s="194"/>
+      <c r="K16" s="194"/>
+      <c r="L16" s="194"/>
+      <c r="M16" s="194"/>
+      <c r="N16" s="194"/>
+      <c r="O16" s="193"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="176"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="176"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="193"/>
+      <c r="D17" s="194"/>
+      <c r="E17" s="194"/>
+      <c r="F17" s="194"/>
+      <c r="G17" s="194"/>
+      <c r="H17" s="194"/>
+      <c r="I17" s="194"/>
+      <c r="J17" s="194"/>
+      <c r="K17" s="194"/>
+      <c r="L17" s="194"/>
+      <c r="M17" s="194"/>
+      <c r="N17" s="194"/>
+      <c r="O17" s="193"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="176"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="176"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="194"/>
+      <c r="E18" s="194"/>
+      <c r="F18" s="194"/>
+      <c r="G18" s="194"/>
+      <c r="H18" s="194"/>
+      <c r="I18" s="194"/>
+      <c r="J18" s="194"/>
+      <c r="K18" s="194"/>
+      <c r="L18" s="194"/>
+      <c r="M18" s="194"/>
+      <c r="N18" s="194"/>
+      <c r="O18" s="196"/>
+      <c r="P18" s="197"/>
+      <c r="Q18" s="176"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="176"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="174"/>
+      <c r="E19" s="174"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="174"/>
+      <c r="H19" s="174"/>
+      <c r="I19" s="174"/>
+      <c r="J19" s="174"/>
+      <c r="K19" s="174"/>
+      <c r="L19" s="174"/>
+      <c r="M19" s="174"/>
+      <c r="N19" s="174"/>
+      <c r="O19" s="197"/>
+      <c r="P19" s="197"/>
+      <c r="Q19" s="176"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="176"/>
+      <c r="B20" s="176"/>
+      <c r="C20" s="176"/>
+      <c r="D20" s="176"/>
+      <c r="E20" s="197"/>
+      <c r="F20" s="197"/>
+      <c r="G20" s="185"/>
+      <c r="H20" s="184" t="s">
         <v>250</v>
       </c>
-      <c r="J16" s="187"/>
-      <c r="K16" s="187"/>
-      <c r="L16" s="187"/>
-      <c r="M16" s="187"/>
-      <c r="N16" s="187"/>
-      <c r="O16" s="186"/>
-      <c r="P16" s="169"/>
-      <c r="Q16" s="169"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="169"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="186"/>
-      <c r="D17" s="187"/>
-      <c r="E17" s="187"/>
-      <c r="F17" s="187"/>
-      <c r="G17" s="187"/>
-      <c r="H17" s="187"/>
-      <c r="I17" s="187"/>
-      <c r="J17" s="187"/>
-      <c r="K17" s="187"/>
-      <c r="L17" s="187"/>
-      <c r="M17" s="187"/>
-      <c r="N17" s="187"/>
-      <c r="O17" s="186"/>
-      <c r="P17" s="169"/>
-      <c r="Q17" s="169"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="169"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="186"/>
-      <c r="D18" s="187"/>
-      <c r="E18" s="187"/>
-      <c r="F18" s="187"/>
-      <c r="G18" s="187"/>
-      <c r="H18" s="187"/>
-      <c r="I18" s="187"/>
-      <c r="J18" s="187"/>
-      <c r="K18" s="187"/>
-      <c r="L18" s="187"/>
-      <c r="M18" s="187"/>
-      <c r="N18" s="187"/>
-      <c r="O18" s="189"/>
-      <c r="P18" s="190"/>
-      <c r="Q18" s="169"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="169"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="167"/>
-      <c r="E19" s="167"/>
-      <c r="F19" s="167"/>
-      <c r="G19" s="167"/>
-      <c r="H19" s="167"/>
-      <c r="I19" s="167"/>
-      <c r="J19" s="167"/>
-      <c r="K19" s="167"/>
-      <c r="L19" s="167"/>
-      <c r="M19" s="167"/>
-      <c r="N19" s="167"/>
-      <c r="O19" s="190"/>
-      <c r="P19" s="190"/>
-      <c r="Q19" s="169"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="169"/>
-      <c r="B20" s="169"/>
-      <c r="C20" s="169"/>
-      <c r="D20" s="169"/>
-      <c r="E20" s="190"/>
-      <c r="F20" s="190"/>
-      <c r="G20" s="178"/>
-      <c r="H20" s="177" t="s">
+      <c r="I20" s="185"/>
+      <c r="J20" s="185"/>
+      <c r="K20" s="185"/>
+      <c r="M20" s="197"/>
+      <c r="N20" s="197"/>
+      <c r="O20" s="197"/>
+      <c r="P20" s="197"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="176"/>
+      <c r="C21" s="176"/>
+      <c r="D21" s="176"/>
+      <c r="E21" s="197"/>
+      <c r="F21" s="197"/>
+      <c r="G21" s="197"/>
+      <c r="H21" s="197"/>
+      <c r="I21" s="197"/>
+      <c r="J21" s="197"/>
+      <c r="K21" s="197"/>
+      <c r="L21" s="197"/>
+      <c r="M21" s="197"/>
+      <c r="N21" s="197"/>
+      <c r="O21" s="197"/>
+      <c r="P21" s="197"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="198"/>
+      <c r="B22" s="198"/>
+      <c r="C22" s="198"/>
+      <c r="D22" s="198"/>
+      <c r="E22" s="185"/>
+      <c r="F22" s="185"/>
+      <c r="G22" s="185"/>
+      <c r="H22" s="185"/>
+      <c r="I22" s="185"/>
+      <c r="J22" s="185"/>
+      <c r="K22" s="185"/>
+      <c r="L22" s="185"/>
+      <c r="M22" s="185"/>
+      <c r="N22" s="185"/>
+      <c r="O22" s="185"/>
+      <c r="P22" s="197"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="198"/>
+      <c r="B23" s="198"/>
+      <c r="C23" s="198"/>
+      <c r="D23" s="198"/>
+      <c r="E23" s="185"/>
+      <c r="F23" s="185"/>
+      <c r="G23" s="174"/>
+      <c r="H23" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="I20" s="178"/>
-      <c r="J20" s="178"/>
-      <c r="K20" s="178"/>
-      <c r="M20" s="190"/>
-      <c r="N20" s="190"/>
-      <c r="O20" s="190"/>
-      <c r="P20" s="190"/>
-    </row>
-    <row r="21">
-      <c r="B21" s="169"/>
-      <c r="C21" s="169"/>
-      <c r="D21" s="169"/>
-      <c r="E21" s="190"/>
-      <c r="F21" s="190"/>
-      <c r="G21" s="190"/>
-      <c r="H21" s="190"/>
-      <c r="I21" s="190"/>
-      <c r="J21" s="190"/>
-      <c r="K21" s="190"/>
-      <c r="L21" s="190"/>
-      <c r="M21" s="190"/>
-      <c r="N21" s="190"/>
-      <c r="O21" s="190"/>
-      <c r="P21" s="190"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="191"/>
-      <c r="B22" s="191"/>
-      <c r="C22" s="191"/>
-      <c r="D22" s="191"/>
-      <c r="E22" s="178"/>
-      <c r="F22" s="178"/>
-      <c r="G22" s="178"/>
-      <c r="H22" s="178"/>
-      <c r="I22" s="178"/>
-      <c r="J22" s="178"/>
-      <c r="K22" s="178"/>
-      <c r="L22" s="178"/>
-      <c r="M22" s="178"/>
-      <c r="N22" s="178"/>
-      <c r="O22" s="178"/>
-      <c r="P22" s="190"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="191"/>
-      <c r="B23" s="191"/>
-      <c r="C23" s="191"/>
-      <c r="D23" s="191"/>
-      <c r="E23" s="178"/>
-      <c r="F23" s="178"/>
-      <c r="G23" s="167"/>
-      <c r="H23" s="168" t="s">
+      <c r="I23" s="174"/>
+      <c r="J23" s="185"/>
+      <c r="K23" s="185"/>
+      <c r="L23" s="185"/>
+      <c r="M23" s="185"/>
+      <c r="N23" s="185"/>
+      <c r="O23" s="185"/>
+      <c r="P23" s="197"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="198"/>
+      <c r="B24" s="198"/>
+      <c r="C24" s="198"/>
+      <c r="D24" s="198"/>
+      <c r="E24" s="185"/>
+      <c r="F24" s="185"/>
+      <c r="G24" s="184" t="s">
         <v>252</v>
       </c>
-      <c r="I23" s="167"/>
-      <c r="J23" s="178"/>
-      <c r="K23" s="178"/>
-      <c r="L23" s="178"/>
-      <c r="M23" s="178"/>
-      <c r="N23" s="178"/>
-      <c r="O23" s="178"/>
-      <c r="P23" s="190"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="191"/>
-      <c r="B24" s="191"/>
-      <c r="C24" s="191"/>
-      <c r="D24" s="191"/>
-      <c r="E24" s="178"/>
-      <c r="F24" s="178"/>
-      <c r="G24" s="177" t="s">
+      <c r="H24" s="185"/>
+      <c r="I24" s="185"/>
+      <c r="J24" s="185"/>
+      <c r="K24" s="185"/>
+      <c r="L24" s="185"/>
+      <c r="M24" s="185"/>
+      <c r="N24" s="185"/>
+      <c r="O24" s="185"/>
+      <c r="P24" s="197"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="198"/>
+      <c r="B25" s="198"/>
+      <c r="C25" s="198"/>
+      <c r="D25" s="198"/>
+      <c r="E25" s="185"/>
+      <c r="F25" s="185"/>
+      <c r="G25" s="184" t="s">
         <v>253</v>
       </c>
-      <c r="H24" s="178"/>
-      <c r="I24" s="178"/>
-      <c r="J24" s="178"/>
-      <c r="K24" s="178"/>
-      <c r="L24" s="178"/>
-      <c r="M24" s="178"/>
-      <c r="N24" s="178"/>
-      <c r="O24" s="178"/>
-      <c r="P24" s="190"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="191"/>
-      <c r="B25" s="191"/>
-      <c r="C25" s="191"/>
-      <c r="D25" s="191"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="177" t="s">
+      <c r="H25" s="185"/>
+      <c r="I25" s="185"/>
+      <c r="J25" s="185"/>
+      <c r="K25" s="185"/>
+      <c r="L25" s="185"/>
+      <c r="M25" s="185"/>
+      <c r="N25" s="185"/>
+      <c r="O25" s="185"/>
+      <c r="P25" s="197"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="198"/>
+      <c r="B26" s="198"/>
+      <c r="C26" s="198"/>
+      <c r="D26" s="198"/>
+      <c r="E26" s="185"/>
+      <c r="F26" s="185"/>
+      <c r="G26" s="185"/>
+      <c r="H26" s="185"/>
+      <c r="I26" s="185"/>
+      <c r="J26" s="185"/>
+      <c r="K26" s="185"/>
+      <c r="L26" s="185"/>
+      <c r="M26" s="185"/>
+      <c r="N26" s="185"/>
+      <c r="O26" s="185"/>
+      <c r="P26" s="197"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="198"/>
+      <c r="B27" s="198"/>
+      <c r="C27" s="198"/>
+      <c r="D27" s="198"/>
+      <c r="E27" s="185"/>
+      <c r="F27" s="185"/>
+      <c r="G27" s="174"/>
+      <c r="H27" s="175" t="s">
         <v>254</v>
       </c>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="178"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="190"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="191"/>
-      <c r="B26" s="191"/>
-      <c r="C26" s="191"/>
-      <c r="D26" s="191"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="178"/>
-      <c r="N26" s="178"/>
-      <c r="O26" s="178"/>
-      <c r="P26" s="190"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="191"/>
-      <c r="B27" s="191"/>
-      <c r="C27" s="191"/>
-      <c r="D27" s="191"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="167"/>
-      <c r="H27" s="168" t="s">
+      <c r="I27" s="174"/>
+      <c r="J27" s="185"/>
+      <c r="K27" s="185"/>
+      <c r="L27" s="185"/>
+      <c r="M27" s="185"/>
+      <c r="N27" s="185"/>
+      <c r="O27" s="185"/>
+      <c r="P27" s="197"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="198"/>
+      <c r="B28" s="198"/>
+      <c r="C28" s="198"/>
+      <c r="D28" s="198"/>
+      <c r="E28" s="185"/>
+      <c r="F28" s="185"/>
+      <c r="G28" s="185"/>
+      <c r="H28" s="184" t="s">
         <v>255</v>
       </c>
-      <c r="I27" s="167"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="178"/>
-      <c r="N27" s="178"/>
-      <c r="O27" s="178"/>
-      <c r="P27" s="190"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="191"/>
-      <c r="B28" s="191"/>
-      <c r="C28" s="191"/>
-      <c r="D28" s="191"/>
-      <c r="E28" s="178"/>
-      <c r="F28" s="178"/>
-      <c r="G28" s="178"/>
-      <c r="H28" s="177" t="s">
+      <c r="I28" s="185"/>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="185"/>
+      <c r="N28" s="185"/>
+      <c r="O28" s="185"/>
+      <c r="P28" s="197"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="198"/>
+      <c r="B29" s="198"/>
+      <c r="C29" s="198"/>
+      <c r="D29" s="198"/>
+      <c r="E29" s="185"/>
+      <c r="F29" s="185"/>
+      <c r="G29" s="185"/>
+      <c r="H29" s="185"/>
+      <c r="I29" s="185"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="185"/>
+      <c r="M29" s="185"/>
+      <c r="N29" s="185"/>
+      <c r="O29" s="185"/>
+      <c r="P29" s="197"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="198"/>
+      <c r="B30" s="198"/>
+      <c r="C30" s="198"/>
+      <c r="D30" s="198"/>
+      <c r="E30" s="185"/>
+      <c r="F30" s="185"/>
+      <c r="G30" s="185"/>
+      <c r="H30" s="199" t="s">
         <v>256</v>
       </c>
-      <c r="I28" s="178"/>
-      <c r="J28" s="178"/>
-      <c r="K28" s="178"/>
-      <c r="L28" s="178"/>
-      <c r="M28" s="178"/>
-      <c r="N28" s="178"/>
-      <c r="O28" s="178"/>
-      <c r="P28" s="190"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="191"/>
-      <c r="B29" s="191"/>
-      <c r="C29" s="191"/>
-      <c r="D29" s="191"/>
-      <c r="E29" s="178"/>
-      <c r="F29" s="178"/>
-      <c r="G29" s="178"/>
-      <c r="H29" s="178"/>
-      <c r="I29" s="178"/>
-      <c r="J29" s="178"/>
-      <c r="K29" s="178"/>
-      <c r="L29" s="178"/>
-      <c r="M29" s="178"/>
-      <c r="N29" s="178"/>
-      <c r="O29" s="178"/>
-      <c r="P29" s="190"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="191"/>
-      <c r="B30" s="191"/>
-      <c r="C30" s="191"/>
-      <c r="D30" s="191"/>
-      <c r="E30" s="178"/>
-      <c r="F30" s="178"/>
-      <c r="G30" s="178"/>
-      <c r="H30" s="192" t="s">
+      <c r="I30" s="185"/>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="185"/>
+      <c r="M30" s="185"/>
+      <c r="N30" s="185"/>
+      <c r="O30" s="185"/>
+      <c r="P30" s="197"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="198"/>
+      <c r="B31" s="198"/>
+      <c r="C31" s="198"/>
+      <c r="D31" s="198"/>
+      <c r="E31" s="185"/>
+      <c r="F31" s="185"/>
+      <c r="G31" s="185"/>
+      <c r="H31" s="185"/>
+      <c r="I31" s="185"/>
+      <c r="J31" s="185"/>
+      <c r="K31" s="185"/>
+      <c r="L31" s="185"/>
+      <c r="M31" s="185"/>
+      <c r="N31" s="185"/>
+      <c r="O31" s="185"/>
+      <c r="P31" s="197"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="198"/>
+      <c r="B32" s="198"/>
+      <c r="C32" s="198"/>
+      <c r="D32" s="198"/>
+      <c r="E32" s="185"/>
+      <c r="F32" s="185"/>
+      <c r="G32" s="174"/>
+      <c r="H32" s="175" t="s">
         <v>257</v>
       </c>
-      <c r="I30" s="178"/>
-      <c r="J30" s="178"/>
-      <c r="K30" s="178"/>
-      <c r="L30" s="178"/>
-      <c r="M30" s="178"/>
-      <c r="N30" s="178"/>
-      <c r="O30" s="178"/>
-      <c r="P30" s="190"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="191"/>
-      <c r="B31" s="191"/>
-      <c r="C31" s="191"/>
-      <c r="D31" s="191"/>
-      <c r="E31" s="178"/>
-      <c r="F31" s="178"/>
-      <c r="G31" s="178"/>
-      <c r="H31" s="178"/>
-      <c r="I31" s="178"/>
-      <c r="J31" s="178"/>
-      <c r="K31" s="178"/>
-      <c r="L31" s="178"/>
-      <c r="M31" s="178"/>
-      <c r="N31" s="178"/>
-      <c r="O31" s="178"/>
-      <c r="P31" s="190"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="191"/>
-      <c r="B32" s="191"/>
-      <c r="C32" s="191"/>
-      <c r="D32" s="191"/>
-      <c r="E32" s="178"/>
-      <c r="F32" s="178"/>
-      <c r="G32" s="167"/>
-      <c r="H32" s="168" t="s">
+      <c r="I32" s="174"/>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="185"/>
+      <c r="M32" s="185"/>
+      <c r="N32" s="185"/>
+      <c r="O32" s="185"/>
+      <c r="P32" s="197"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="198"/>
+      <c r="B33" s="198"/>
+      <c r="C33" s="198"/>
+      <c r="D33" s="198"/>
+      <c r="E33" s="185"/>
+      <c r="F33" s="185"/>
+      <c r="G33" s="185"/>
+      <c r="H33" s="184" t="s">
         <v>258</v>
       </c>
-      <c r="I32" s="167"/>
-      <c r="J32" s="178"/>
-      <c r="K32" s="178"/>
-      <c r="L32" s="178"/>
-      <c r="M32" s="178"/>
-      <c r="N32" s="178"/>
-      <c r="O32" s="178"/>
-      <c r="P32" s="190"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="191"/>
-      <c r="B33" s="191"/>
-      <c r="C33" s="191"/>
-      <c r="D33" s="191"/>
-      <c r="E33" s="178"/>
-      <c r="F33" s="178"/>
-      <c r="G33" s="178"/>
-      <c r="H33" s="177" t="s">
+      <c r="I33" s="185"/>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="185"/>
+      <c r="M33" s="185"/>
+      <c r="N33" s="185"/>
+      <c r="O33" s="185"/>
+      <c r="P33" s="197"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="198"/>
+      <c r="B34" s="198"/>
+      <c r="C34" s="198"/>
+      <c r="D34" s="198"/>
+      <c r="E34" s="185"/>
+      <c r="F34" s="185"/>
+      <c r="G34" s="185"/>
+      <c r="H34" s="185"/>
+      <c r="I34" s="185"/>
+      <c r="J34" s="185"/>
+      <c r="K34" s="185"/>
+      <c r="L34" s="185"/>
+      <c r="M34" s="185"/>
+      <c r="N34" s="185"/>
+      <c r="O34" s="185"/>
+      <c r="P34" s="197"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="198"/>
+      <c r="B35" s="198"/>
+      <c r="C35" s="198"/>
+      <c r="D35" s="198"/>
+      <c r="E35" s="185"/>
+      <c r="F35" s="185"/>
+      <c r="G35" s="174"/>
+      <c r="H35" s="175" t="s">
         <v>259</v>
       </c>
-      <c r="I33" s="178"/>
-      <c r="J33" s="178"/>
-      <c r="K33" s="178"/>
-      <c r="L33" s="178"/>
-      <c r="M33" s="178"/>
-      <c r="N33" s="178"/>
-      <c r="O33" s="178"/>
-      <c r="P33" s="190"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="191"/>
-      <c r="B34" s="191"/>
-      <c r="C34" s="191"/>
-      <c r="D34" s="191"/>
-      <c r="E34" s="178"/>
-      <c r="F34" s="178"/>
-      <c r="G34" s="178"/>
-      <c r="H34" s="178"/>
-      <c r="I34" s="178"/>
-      <c r="J34" s="178"/>
-      <c r="K34" s="178"/>
-      <c r="L34" s="178"/>
-      <c r="M34" s="178"/>
-      <c r="N34" s="178"/>
-      <c r="O34" s="178"/>
-      <c r="P34" s="190"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="191"/>
-      <c r="B35" s="191"/>
-      <c r="C35" s="191"/>
-      <c r="D35" s="191"/>
-      <c r="E35" s="178"/>
-      <c r="F35" s="178"/>
-      <c r="G35" s="167"/>
-      <c r="H35" s="168" t="s">
+      <c r="I35" s="174"/>
+      <c r="J35" s="185"/>
+      <c r="K35" s="185"/>
+      <c r="L35" s="185"/>
+      <c r="M35" s="185"/>
+      <c r="N35" s="185"/>
+      <c r="O35" s="185"/>
+      <c r="P35" s="197"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="198"/>
+      <c r="B36" s="198"/>
+      <c r="C36" s="198"/>
+      <c r="D36" s="198"/>
+      <c r="E36" s="185"/>
+      <c r="F36" s="185"/>
+      <c r="G36" s="185"/>
+      <c r="H36" s="185"/>
+      <c r="I36" s="185"/>
+      <c r="J36" s="185"/>
+      <c r="K36" s="185"/>
+      <c r="L36" s="185"/>
+      <c r="M36" s="185"/>
+      <c r="N36" s="185"/>
+      <c r="O36" s="185"/>
+      <c r="P36" s="197"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="198"/>
+      <c r="B37" s="198"/>
+      <c r="C37" s="198"/>
+      <c r="D37" s="198"/>
+      <c r="E37" s="185"/>
+      <c r="F37" s="185"/>
+      <c r="G37" s="185"/>
+      <c r="H37" s="184" t="s">
         <v>260</v>
       </c>
-      <c r="I35" s="167"/>
-      <c r="J35" s="178"/>
-      <c r="K35" s="178"/>
-      <c r="L35" s="178"/>
-      <c r="M35" s="178"/>
-      <c r="N35" s="178"/>
-      <c r="O35" s="178"/>
-      <c r="P35" s="190"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="191"/>
-      <c r="B36" s="191"/>
-      <c r="C36" s="191"/>
-      <c r="D36" s="191"/>
-      <c r="E36" s="178"/>
-      <c r="F36" s="178"/>
-      <c r="G36" s="178"/>
-      <c r="H36" s="178"/>
-      <c r="I36" s="178"/>
-      <c r="J36" s="178"/>
-      <c r="K36" s="178"/>
-      <c r="L36" s="178"/>
-      <c r="M36" s="178"/>
-      <c r="N36" s="178"/>
-      <c r="O36" s="178"/>
-      <c r="P36" s="190"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="191"/>
-      <c r="B37" s="191"/>
-      <c r="C37" s="191"/>
-      <c r="D37" s="191"/>
-      <c r="E37" s="178"/>
-      <c r="F37" s="178"/>
-      <c r="G37" s="178"/>
-      <c r="H37" s="177" t="s">
-        <v>261</v>
-      </c>
-      <c r="I37" s="178"/>
-      <c r="J37" s="178"/>
-      <c r="K37" s="178"/>
-      <c r="L37" s="178"/>
-      <c r="M37" s="178"/>
-      <c r="N37" s="178"/>
-      <c r="O37" s="178"/>
-      <c r="P37" s="190"/>
+      <c r="I37" s="185"/>
+      <c r="J37" s="185"/>
+      <c r="K37" s="185"/>
+      <c r="L37" s="185"/>
+      <c r="M37" s="185"/>
+      <c r="N37" s="185"/>
+      <c r="O37" s="185"/>
+      <c r="P37" s="197"/>
     </row>
     <row r="38">
-      <c r="A38" s="191"/>
-      <c r="B38" s="191"/>
-      <c r="C38" s="191"/>
-      <c r="D38" s="191"/>
-      <c r="E38" s="178"/>
-      <c r="F38" s="178"/>
-      <c r="G38" s="178"/>
-      <c r="H38" s="178"/>
-      <c r="I38" s="178"/>
-      <c r="J38" s="178"/>
-      <c r="K38" s="178"/>
-      <c r="L38" s="178"/>
-      <c r="M38" s="178"/>
-      <c r="N38" s="178"/>
-      <c r="O38" s="178"/>
-      <c r="P38" s="190"/>
+      <c r="A38" s="198"/>
+      <c r="B38" s="198"/>
+      <c r="C38" s="198"/>
+      <c r="D38" s="198"/>
+      <c r="E38" s="185"/>
+      <c r="F38" s="185"/>
+      <c r="G38" s="185"/>
+      <c r="H38" s="185"/>
+      <c r="I38" s="185"/>
+      <c r="J38" s="185"/>
+      <c r="K38" s="185"/>
+      <c r="L38" s="185"/>
+      <c r="M38" s="185"/>
+      <c r="N38" s="185"/>
+      <c r="O38" s="185"/>
+      <c r="P38" s="197"/>
     </row>
     <row r="39">
-      <c r="A39" s="100"/>
-      <c r="B39" s="100"/>
-      <c r="C39" s="100"/>
-      <c r="D39" s="100"/>
-      <c r="E39" s="178"/>
-      <c r="F39" s="178"/>
-      <c r="G39" s="178"/>
-      <c r="H39" s="178"/>
-      <c r="I39" s="178"/>
-      <c r="J39" s="178"/>
-      <c r="K39" s="178"/>
-      <c r="L39" s="178"/>
-      <c r="M39" s="178"/>
-      <c r="N39" s="178"/>
-      <c r="O39" s="178"/>
-      <c r="P39" s="190"/>
+      <c r="A39" s="86"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="86"/>
+      <c r="D39" s="86"/>
+      <c r="E39" s="185"/>
+      <c r="F39" s="185"/>
+      <c r="G39" s="185"/>
+      <c r="H39" s="185"/>
+      <c r="I39" s="185"/>
+      <c r="J39" s="185"/>
+      <c r="K39" s="185"/>
+      <c r="L39" s="185"/>
+      <c r="M39" s="185"/>
+      <c r="N39" s="185"/>
+      <c r="O39" s="185"/>
+      <c r="P39" s="197"/>
     </row>
     <row r="40">
-      <c r="A40" s="100"/>
-      <c r="B40" s="100"/>
-      <c r="C40" s="100"/>
-      <c r="D40" s="100"/>
-      <c r="E40" s="178"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="178"/>
-      <c r="H40" s="178"/>
-      <c r="I40" s="178"/>
-      <c r="J40" s="178"/>
-      <c r="K40" s="178"/>
-      <c r="L40" s="178"/>
-      <c r="M40" s="178"/>
-      <c r="N40" s="178"/>
-      <c r="O40" s="178"/>
-      <c r="P40" s="190"/>
+      <c r="A40" s="86"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="86"/>
+      <c r="D40" s="86"/>
+      <c r="E40" s="185"/>
+      <c r="F40" s="185"/>
+      <c r="G40" s="185"/>
+      <c r="H40" s="185"/>
+      <c r="I40" s="185"/>
+      <c r="J40" s="185"/>
+      <c r="K40" s="185"/>
+      <c r="L40" s="185"/>
+      <c r="M40" s="185"/>
+      <c r="N40" s="185"/>
+      <c r="O40" s="185"/>
+      <c r="P40" s="197"/>
     </row>
     <row r="41">
-      <c r="E41" s="190"/>
-      <c r="F41" s="190"/>
-      <c r="G41" s="190"/>
-      <c r="H41" s="190"/>
-      <c r="I41" s="190"/>
-      <c r="J41" s="190"/>
-      <c r="K41" s="190"/>
-      <c r="L41" s="190"/>
-      <c r="M41" s="190"/>
-      <c r="N41" s="190"/>
-      <c r="O41" s="190"/>
-      <c r="P41" s="190"/>
+      <c r="E41" s="197"/>
+      <c r="F41" s="197"/>
+      <c r="G41" s="197"/>
+      <c r="H41" s="197"/>
+      <c r="I41" s="197"/>
+      <c r="J41" s="197"/>
+      <c r="K41" s="197"/>
+      <c r="L41" s="197"/>
+      <c r="M41" s="197"/>
+      <c r="N41" s="197"/>
+      <c r="O41" s="197"/>
+      <c r="P41" s="197"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -15164,705 +15187,424 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="4.25"/>
-    <col customWidth="1" min="2" max="2" width="50.88"/>
-    <col customWidth="1" min="5" max="5" width="16.0"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="64" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="64" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="64" t="s">
-        <v>94</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D2" s="66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" s="67"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="64" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="64" t="s">
-        <v>97</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D3" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="F3" s="67"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="64" t="s">
-        <v>99</v>
-      </c>
-      <c r="B4" s="68" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D4" s="66" t="s">
-        <v>101</v>
-      </c>
-      <c r="F4" s="67"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="64" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="70" t="s">
-        <v>103</v>
-      </c>
-      <c r="C5" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5" s="66" t="s">
-        <v>104</v>
-      </c>
-      <c r="F5" s="67"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="64" t="s">
-        <v>105</v>
-      </c>
-      <c r="B6" s="64" t="s">
-        <v>106</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="66" t="s">
-        <v>107</v>
-      </c>
-      <c r="F6" s="67"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="64" t="s">
-        <v>108</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>109</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="71" t="s">
-        <v>110</v>
-      </c>
-      <c r="F7" s="67"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="64" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="64" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8" s="66" t="s">
-        <v>113</v>
-      </c>
-      <c r="F8" s="67"/>
-      <c r="H8" s="72"/>
-      <c r="I8" s="73"/>
-      <c r="J8" s="72"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="64" t="s">
-        <v>114</v>
-      </c>
-      <c r="B9" s="74" t="s">
-        <v>115</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" s="66" t="s">
-        <v>116</v>
-      </c>
-      <c r="F9" s="67"/>
-      <c r="H9" s="72"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="72"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="64" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="74" t="s">
-        <v>118</v>
-      </c>
-      <c r="C10" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10" s="66" t="s">
-        <v>119</v>
-      </c>
-      <c r="F10" s="67"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="64" t="s">
-        <v>120</v>
-      </c>
-      <c r="B11" s="74" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D11" s="66" t="s">
-        <v>122</v>
-      </c>
-      <c r="F11" s="67"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="64" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>124</v>
-      </c>
-      <c r="C12" s="69" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="66" t="s">
-        <v>125</v>
-      </c>
-      <c r="F12" s="67"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="64">
-        <v>12.0</v>
-      </c>
-      <c r="B13" s="74" t="s">
-        <v>126</v>
-      </c>
-      <c r="C13" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D13" s="66" t="s">
-        <v>127</v>
-      </c>
-      <c r="F13" s="67"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="64">
-        <v>13.0</v>
-      </c>
-      <c r="B14" s="64" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="71" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14" s="67"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="64">
-        <v>14.0</v>
-      </c>
-      <c r="B15" s="74" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="66" t="s">
-        <v>131</v>
-      </c>
-      <c r="F15" s="67"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="64">
-        <v>15.0</v>
-      </c>
-      <c r="B16" s="64" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="65" t="s">
-        <v>31</v>
-      </c>
-      <c r="D16" s="66" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="67"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-    </row>
-    <row r="18">
-      <c r="B18" s="77"/>
-    </row>
-  </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D13:E13"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="D10:E10"/>
-    <mergeCell ref="D9:E9"/>
-    <mergeCell ref="D8:E8"/>
-  </mergeCells>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
-  <cols>
     <col customWidth="1" min="2" max="2" width="24.13"/>
     <col customWidth="1" min="4" max="4" width="20.13"/>
     <col customWidth="1" min="7" max="7" width="35.38"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="C1" s="78"/>
-      <c r="D1" s="78"/>
-      <c r="E1" s="78"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
     </row>
     <row r="2">
-      <c r="C2" s="78"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="65" t="s">
+        <v>92</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>95</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="75">
+        <v>44647.0</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>98</v>
+      </c>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="81">
+        <v>44651.0</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="83" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
+      <c r="J7" s="86"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="91"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94" t="s">
+        <v>106</v>
+      </c>
+      <c r="D9" s="95"/>
+      <c r="E9" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="98"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="99" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" s="100"/>
+      <c r="C10" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="101"/>
+      <c r="E10" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="98"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="92" t="s">
+        <v>113</v>
+      </c>
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="98"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="92" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="101"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="98"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="92"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="114"/>
+      <c r="G14" s="69"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="115"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="117" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="118"/>
+      <c r="G15" s="119"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="115"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="117" t="s">
+        <v>120</v>
+      </c>
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="122"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="128"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="129" t="s">
+        <v>122</v>
+      </c>
+      <c r="D18" s="130"/>
+      <c r="E18" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="114"/>
+      <c r="G18" s="69"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="132"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="134"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="135" t="s">
+        <v>124</v>
+      </c>
+      <c r="F19" s="136"/>
+      <c r="G19" s="137"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="132"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="134"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="135" t="s">
+        <v>125</v>
+      </c>
+      <c r="F20" s="136"/>
+      <c r="G20" s="137"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="132"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="135" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="136"/>
+      <c r="G21" s="137"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="140"/>
+      <c r="B22" s="140"/>
+      <c r="E22" s="135" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="136"/>
+      <c r="G22" s="137"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="140"/>
+      <c r="B23" s="140"/>
+      <c r="E23" s="141" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="142"/>
+      <c r="G23" s="143"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="144"/>
+      <c r="B24" s="144"/>
+      <c r="C24" s="144"/>
+      <c r="D24" s="144"/>
+      <c r="E24" s="144"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="144"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="145" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="144"/>
+      <c r="C25" s="144"/>
+      <c r="D25" s="144"/>
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="146" t="s">
+        <v>130</v>
+      </c>
+      <c r="B26" s="144"/>
+      <c r="C26" s="144"/>
+      <c r="D26" s="144"/>
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="145" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="144"/>
+      <c r="C27" s="144"/>
+      <c r="D27" s="144"/>
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="145" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="144"/>
+      <c r="C28" s="144"/>
+      <c r="D28" s="144"/>
+      <c r="E28" s="144"/>
+      <c r="F28" s="144"/>
+      <c r="G28" s="144"/>
+    </row>
+    <row r="29">
+      <c r="A29" s="145" t="s">
+        <v>133</v>
+      </c>
+      <c r="B29" s="144"/>
+      <c r="C29" s="144"/>
+      <c r="D29" s="144"/>
+      <c r="E29" s="144"/>
+      <c r="F29" s="144"/>
+      <c r="G29" s="144"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="145" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="82" t="s">
+      <c r="B30" s="144"/>
+      <c r="C30" s="144"/>
+      <c r="D30" s="144"/>
+      <c r="E30" s="144"/>
+      <c r="F30" s="144"/>
+      <c r="G30" s="144"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="145" t="s">
         <v>135</v>
       </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84" t="s">
+      <c r="B31" s="144"/>
+      <c r="C31" s="144"/>
+      <c r="D31" s="144"/>
+      <c r="E31" s="144"/>
+      <c r="F31" s="144"/>
+      <c r="G31" s="144"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="145" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="85" t="s">
+      <c r="B32" s="144"/>
+      <c r="C32" s="144"/>
+      <c r="D32" s="144"/>
+      <c r="E32" s="144"/>
+      <c r="F32" s="144"/>
+      <c r="G32" s="144"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="145" t="s">
         <v>137</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="88" t="s">
+      <c r="B33" s="144"/>
+      <c r="C33" s="144"/>
+      <c r="D33" s="144"/>
+      <c r="E33" s="144"/>
+      <c r="F33" s="144"/>
+      <c r="G33" s="144"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="145" t="s">
         <v>138</v>
       </c>
-      <c r="B6" s="89">
-        <v>44647.0</v>
-      </c>
-      <c r="C6" s="90" t="s">
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="145" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="91" t="s">
-        <v>140</v>
-      </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="95">
-        <v>44651.0</v>
-      </c>
-      <c r="C7" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>143</v>
-      </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="99"/>
-      <c r="J7" s="100"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="102" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="105"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="108" t="s">
-        <v>148</v>
-      </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="111" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="112"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="113" t="s">
-        <v>151</v>
-      </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="108" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="110" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="112"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="106" t="s">
-        <v>155</v>
-      </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="112"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="106" t="s">
-        <v>156</v>
-      </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="112"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="106"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="121" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="106" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="127" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="128"/>
-      <c r="G14" s="83"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="129"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="131" t="s">
-        <v>161</v>
-      </c>
-      <c r="F15" s="132"/>
-      <c r="G15" s="133"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="129"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="131" t="s">
-        <v>162</v>
-      </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="138" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="141"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="142"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="143" t="s">
-        <v>164</v>
-      </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="128"/>
-      <c r="G18" s="83"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="146"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="148"/>
-      <c r="D19" s="144"/>
-      <c r="E19" s="149" t="s">
-        <v>166</v>
-      </c>
-      <c r="F19" s="150"/>
-      <c r="G19" s="151"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="146"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="148"/>
-      <c r="D20" s="144"/>
-      <c r="E20" s="149" t="s">
-        <v>167</v>
-      </c>
-      <c r="F20" s="150"/>
-      <c r="G20" s="151"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="146"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="149" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="150"/>
-      <c r="G21" s="151"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="E22" s="149" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="E23" s="154" t="s">
-        <v>170</v>
-      </c>
-      <c r="F23" s="155"/>
-      <c r="G23" s="156"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="76"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="76"/>
-      <c r="F24" s="76"/>
-      <c r="G24" s="76"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="157" t="s">
-        <v>171</v>
-      </c>
-      <c r="B25" s="76"/>
-      <c r="C25" s="76"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="76"/>
-      <c r="F25" s="76"/>
-      <c r="G25" s="76"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="158" t="s">
-        <v>172</v>
-      </c>
-      <c r="B26" s="76"/>
-      <c r="C26" s="76"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="76"/>
-      <c r="F26" s="76"/>
-      <c r="G26" s="76"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="157" t="s">
-        <v>173</v>
-      </c>
-      <c r="B27" s="76"/>
-      <c r="C27" s="76"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="76"/>
-      <c r="F27" s="76"/>
-      <c r="G27" s="76"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="157" t="s">
-        <v>174</v>
-      </c>
-      <c r="B28" s="76"/>
-      <c r="C28" s="76"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
-      <c r="G28" s="76"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="157" t="s">
-        <v>175</v>
-      </c>
-      <c r="B29" s="76"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="76"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="76"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="157" t="s">
-        <v>176</v>
-      </c>
-      <c r="B30" s="76"/>
-      <c r="C30" s="76"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="76"/>
-      <c r="F30" s="76"/>
-      <c r="G30" s="76"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="157" t="s">
-        <v>177</v>
-      </c>
-      <c r="B31" s="76"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="76"/>
-      <c r="F31" s="76"/>
-      <c r="G31" s="76"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="157" t="s">
-        <v>178</v>
-      </c>
-      <c r="B32" s="76"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="76"/>
-      <c r="F32" s="76"/>
-      <c r="G32" s="76"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="157" t="s">
-        <v>179</v>
-      </c>
-      <c r="B33" s="76"/>
-      <c r="C33" s="76"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="76"/>
-      <c r="F33" s="76"/>
-      <c r="G33" s="76"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="157" t="s">
-        <v>180</v>
-      </c>
-      <c r="B34" s="76"/>
-      <c r="C34" s="76"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="76"/>
-      <c r="F34" s="76"/>
-      <c r="G34" s="76"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="157" t="s">
-        <v>181</v>
-      </c>
-      <c r="B35" s="76"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="76"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
+      <c r="B35" s="144"/>
+      <c r="C35" s="144"/>
+      <c r="D35" s="144"/>
+      <c r="E35" s="144"/>
+      <c r="F35" s="144"/>
+      <c r="G35" s="144"/>
     </row>
     <row r="36">
-      <c r="A36" s="76"/>
-      <c r="B36" s="76"/>
-      <c r="C36" s="76"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="76"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
+      <c r="A36" s="144"/>
+      <c r="B36" s="144"/>
+      <c r="C36" s="144"/>
+      <c r="D36" s="144"/>
+      <c r="E36" s="144"/>
+      <c r="F36" s="144"/>
+      <c r="G36" s="144"/>
     </row>
     <row r="37">
-      <c r="A37" s="76"/>
-      <c r="B37" s="76"/>
-      <c r="C37" s="76"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="76"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
+      <c r="A37" s="144"/>
+      <c r="B37" s="144"/>
+      <c r="C37" s="144"/>
+      <c r="D37" s="144"/>
+      <c r="E37" s="144"/>
+      <c r="F37" s="144"/>
+      <c r="G37" s="144"/>
     </row>
     <row r="38">
-      <c r="A38" s="76"/>
-      <c r="B38" s="76"/>
-      <c r="C38" s="76"/>
-      <c r="D38" s="76"/>
-      <c r="E38" s="76"/>
-      <c r="F38" s="76"/>
-      <c r="G38" s="76"/>
+      <c r="A38" s="144"/>
+      <c r="B38" s="144"/>
+      <c r="C38" s="144"/>
+      <c r="D38" s="144"/>
+      <c r="E38" s="144"/>
+      <c r="F38" s="144"/>
+      <c r="G38" s="144"/>
     </row>
   </sheetData>
   <mergeCells count="15">
@@ -15889,6 +15631,379 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="4.25"/>
+    <col customWidth="1" min="2" max="2" width="50.88"/>
+    <col customWidth="1" min="5" max="5" width="16.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="147" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="148">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="148" t="s">
+        <v>141</v>
+      </c>
+      <c r="C2" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="150" t="s">
+        <v>142</v>
+      </c>
+      <c r="F2" s="151"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="148">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="148" t="s">
+        <v>143</v>
+      </c>
+      <c r="C3" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="150" t="s">
+        <v>144</v>
+      </c>
+      <c r="F3" s="151"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="148">
+        <v>3.0</v>
+      </c>
+      <c r="B4" s="148" t="s">
+        <v>145</v>
+      </c>
+      <c r="C4" s="152" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="150" t="s">
+        <v>146</v>
+      </c>
+      <c r="F4" s="151"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="148">
+        <v>4.0</v>
+      </c>
+      <c r="B5" s="148" t="s">
+        <v>147</v>
+      </c>
+      <c r="C5" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="153" t="s">
+        <v>148</v>
+      </c>
+      <c r="F5" s="151"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="148">
+        <v>5.0</v>
+      </c>
+      <c r="B6" s="148" t="s">
+        <v>149</v>
+      </c>
+      <c r="C6" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="150" t="s">
+        <v>150</v>
+      </c>
+      <c r="F6" s="151"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="148">
+        <v>6.0</v>
+      </c>
+      <c r="B7" s="148" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="150" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="151"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="148">
+        <v>7.0</v>
+      </c>
+      <c r="B8" s="148" t="s">
+        <v>153</v>
+      </c>
+      <c r="C8" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="150" t="s">
+        <v>154</v>
+      </c>
+      <c r="F8" s="151"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="148">
+        <v>8.0</v>
+      </c>
+      <c r="B9" s="148" t="s">
+        <v>155</v>
+      </c>
+      <c r="C9" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="F9" s="151"/>
+      <c r="H9" s="140"/>
+      <c r="I9" s="154"/>
+      <c r="J9" s="140"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="148">
+        <v>9.0</v>
+      </c>
+      <c r="B10" s="155" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" s="152" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="150" t="s">
+        <v>158</v>
+      </c>
+      <c r="F10" s="151"/>
+      <c r="H10" s="140"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="140"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="148">
+        <v>10.0</v>
+      </c>
+      <c r="B11" s="148" t="s">
+        <v>159</v>
+      </c>
+      <c r="C11" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="150" t="s">
+        <v>160</v>
+      </c>
+      <c r="F11" s="151"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="148">
+        <v>11.0</v>
+      </c>
+      <c r="B12" s="157" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="152" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="150" t="s">
+        <v>162</v>
+      </c>
+      <c r="F12" s="151"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="148">
+        <v>12.0</v>
+      </c>
+      <c r="B13" s="148" t="s">
+        <v>163</v>
+      </c>
+      <c r="C13" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="150" t="s">
+        <v>164</v>
+      </c>
+      <c r="F13" s="151"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="147">
+        <v>13.0</v>
+      </c>
+      <c r="B14" s="148" t="s">
+        <v>165</v>
+      </c>
+      <c r="C14" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" s="150" t="s">
+        <v>166</v>
+      </c>
+      <c r="F14" s="151"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="147">
+        <v>14.0</v>
+      </c>
+      <c r="B15" s="148" t="s">
+        <v>167</v>
+      </c>
+      <c r="C15" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="153" t="s">
+        <v>168</v>
+      </c>
+      <c r="F15" s="151"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="147">
+        <v>15.0</v>
+      </c>
+      <c r="B16" s="148" t="s">
+        <v>169</v>
+      </c>
+      <c r="C16" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="150" t="s">
+        <v>170</v>
+      </c>
+      <c r="F16" s="151"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="147">
+        <v>16.0</v>
+      </c>
+      <c r="B17" s="147" t="s">
+        <v>171</v>
+      </c>
+      <c r="C17" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="150" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="151"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="147">
+        <v>17.0</v>
+      </c>
+      <c r="B18" s="158" t="s">
+        <v>173</v>
+      </c>
+      <c r="C18" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="147">
+        <v>18.0</v>
+      </c>
+      <c r="B19" s="159" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="147">
+        <v>19.0</v>
+      </c>
+      <c r="B20" s="160" t="s">
+        <v>177</v>
+      </c>
+      <c r="C20" s="149" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" s="161"/>
+    </row>
+    <row r="22">
+      <c r="B22" s="161"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+    </row>
+    <row r="23">
+      <c r="B23" s="161"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+    </row>
+    <row r="24">
+      <c r="B24" s="162"/>
+    </row>
+    <row r="25">
+      <c r="B25" s="162"/>
+    </row>
+    <row r="26">
+      <c r="B26" s="161"/>
+      <c r="C26" s="8"/>
+    </row>
+    <row r="27">
+      <c r="B27" s="161"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="147"/>
+      <c r="B30" s="157"/>
+      <c r="C30" s="163"/>
+      <c r="D30" s="150"/>
+    </row>
+  </sheetData>
+  <mergeCells count="22">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="B21:F21"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="D9:E9"/>
+    <mergeCell ref="D10:E10"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D30:E30"/>
+  </mergeCells>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
@@ -15905,294 +16020,297 @@
   </cols>
   <sheetData>
     <row r="2">
-      <c r="C2" s="78"/>
-      <c r="D2" s="79" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="65" t="s">
+        <v>179</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="71" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="72"/>
+      <c r="F5" s="72"/>
+      <c r="G5" s="73"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="74" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="75">
+        <v>44672.0</v>
+      </c>
+      <c r="C6" s="76" t="s">
+        <v>97</v>
+      </c>
+      <c r="D6" s="77" t="s">
+        <v>181</v>
+      </c>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="79"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="80" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" s="81">
+        <v>44685.0</v>
+      </c>
+      <c r="C7" s="82" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" s="83" t="s">
         <v>182</v>
       </c>
-      <c r="E2" s="80"/>
-      <c r="F2" s="81"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="82" t="s">
-        <v>135</v>
-      </c>
-      <c r="B5" s="83"/>
-      <c r="C5" s="84" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="85" t="s">
+      <c r="E7" s="84"/>
+      <c r="F7" s="84"/>
+      <c r="G7" s="85"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="87" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="69"/>
+      <c r="C8" s="88" t="s">
+        <v>103</v>
+      </c>
+      <c r="D8" s="69"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="90" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="91"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="93"/>
+      <c r="C9" s="164" t="s">
         <v>183</v>
       </c>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="87"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="88" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="89">
-        <v>44672.0</v>
-      </c>
-      <c r="C6" s="90" t="s">
-        <v>139</v>
-      </c>
-      <c r="D6" s="91" t="s">
+      <c r="D9" s="95"/>
+      <c r="E9" s="96" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="97" t="s">
+        <v>108</v>
+      </c>
+      <c r="G9" s="98"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="99" t="s">
         <v>184</v>
       </c>
-      <c r="E6" s="92"/>
-      <c r="F6" s="92"/>
-      <c r="G6" s="93"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="94" t="s">
-        <v>141</v>
-      </c>
-      <c r="B7" s="95">
-        <v>44685.0</v>
-      </c>
-      <c r="C7" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="D7" s="97" t="s">
+      <c r="B10" s="100"/>
+      <c r="C10" s="94" t="s">
+        <v>110</v>
+      </c>
+      <c r="D10" s="101"/>
+      <c r="E10" s="96" t="s">
+        <v>111</v>
+      </c>
+      <c r="F10" s="97" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="98"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="165" t="s">
         <v>185</v>
       </c>
-      <c r="E7" s="98"/>
-      <c r="F7" s="98"/>
-      <c r="G7" s="99"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="101" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="83"/>
-      <c r="C8" s="102" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="83"/>
-      <c r="E8" s="103"/>
-      <c r="F8" s="104" t="s">
-        <v>146</v>
-      </c>
-      <c r="G8" s="105"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="106" t="s">
-        <v>147</v>
-      </c>
-      <c r="B9" s="107"/>
-      <c r="C9" s="159" t="s">
+      <c r="B11" s="101"/>
+      <c r="C11" s="102"/>
+      <c r="D11" s="95"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="98"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="92" t="s">
         <v>186</v>
       </c>
-      <c r="D9" s="109"/>
-      <c r="E9" s="110" t="s">
-        <v>149</v>
-      </c>
-      <c r="F9" s="111" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="112"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="113" t="s">
+      <c r="B12" s="101"/>
+      <c r="C12" s="105"/>
+      <c r="D12" s="106"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="98"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="92"/>
+      <c r="B13" s="101"/>
+      <c r="C13" s="107" t="s">
+        <v>115</v>
+      </c>
+      <c r="D13" s="108"/>
+      <c r="E13" s="109"/>
+      <c r="F13" s="110"/>
+      <c r="G13" s="111"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="92" t="s">
+        <v>116</v>
+      </c>
+      <c r="B14" s="101"/>
+      <c r="C14" s="74" t="s">
+        <v>117</v>
+      </c>
+      <c r="D14" s="112"/>
+      <c r="E14" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="F14" s="114"/>
+      <c r="G14" s="69"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="115"/>
+      <c r="B15" s="101"/>
+      <c r="C15" s="116"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="166" t="s">
         <v>187</v>
       </c>
-      <c r="B10" s="114"/>
-      <c r="C10" s="108" t="s">
-        <v>152</v>
-      </c>
-      <c r="D10" s="115"/>
-      <c r="E10" s="110" t="s">
-        <v>153</v>
-      </c>
-      <c r="F10" s="111" t="s">
-        <v>154</v>
-      </c>
-      <c r="G10" s="112"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="160" t="s">
+      <c r="G15" s="101"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="115"/>
+      <c r="B16" s="101"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="121"/>
+      <c r="E16" s="117" t="s">
         <v>188</v>
       </c>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="109"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="112"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="106" t="s">
+      <c r="F16" s="118"/>
+      <c r="G16" s="119"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="122"/>
+      <c r="B17" s="123"/>
+      <c r="C17" s="124" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="69"/>
+      <c r="E17" s="125"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="128"/>
+      <c r="B18" s="69"/>
+      <c r="C18" s="129" t="s">
         <v>189</v>
       </c>
-      <c r="B12" s="115"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="117"/>
-      <c r="F12" s="118"/>
-      <c r="G12" s="112"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="106"/>
-      <c r="B13" s="115"/>
-      <c r="C13" s="121" t="s">
-        <v>157</v>
-      </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="125"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="106" t="s">
-        <v>158</v>
-      </c>
-      <c r="B14" s="115"/>
-      <c r="C14" s="88" t="s">
-        <v>159</v>
-      </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="127" t="s">
-        <v>160</v>
-      </c>
-      <c r="F14" s="128"/>
-      <c r="G14" s="83"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="129"/>
-      <c r="B15" s="115"/>
-      <c r="C15" s="130"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="131" t="s">
+      <c r="D18" s="130"/>
+      <c r="E18" s="131" t="s">
+        <v>123</v>
+      </c>
+      <c r="F18" s="114"/>
+      <c r="G18" s="69"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="132"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="129" t="s">
         <v>190</v>
       </c>
-      <c r="F15" s="132"/>
-      <c r="G15" s="133"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="129"/>
-      <c r="B16" s="115"/>
-      <c r="C16" s="134"/>
-      <c r="D16" s="135"/>
-      <c r="E16" s="131" t="s">
+      <c r="D19" s="130"/>
+      <c r="E19" s="135" t="s">
         <v>191</v>
       </c>
-      <c r="F16" s="132"/>
-      <c r="G16" s="133"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="136"/>
-      <c r="B17" s="137"/>
-      <c r="C17" s="138" t="s">
-        <v>163</v>
-      </c>
-      <c r="D17" s="83"/>
-      <c r="E17" s="139"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="141"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="142"/>
-      <c r="B18" s="83"/>
-      <c r="C18" s="143" t="s">
+      <c r="F19" s="136"/>
+      <c r="G19" s="137"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="132"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="129" t="s">
         <v>192</v>
       </c>
-      <c r="D18" s="144"/>
-      <c r="E18" s="145" t="s">
-        <v>165</v>
-      </c>
-      <c r="F18" s="128"/>
-      <c r="G18" s="83"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="146"/>
-      <c r="B19" s="147"/>
-      <c r="C19" s="143" t="s">
+      <c r="D20" s="130"/>
+      <c r="E20" s="135" t="s">
         <v>193</v>
       </c>
-      <c r="D19" s="144"/>
-      <c r="E19" s="149" t="s">
+      <c r="F20" s="136"/>
+      <c r="G20" s="137"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="132"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="138"/>
+      <c r="D21" s="139"/>
+      <c r="E21" s="135" t="s">
+        <v>126</v>
+      </c>
+      <c r="F21" s="136"/>
+      <c r="G21" s="137"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="140"/>
+      <c r="B22" s="140"/>
+      <c r="E22" s="135" t="s">
         <v>194</v>
       </c>
-      <c r="F19" s="150"/>
-      <c r="G19" s="151"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="146"/>
-      <c r="B20" s="147"/>
-      <c r="C20" s="143" t="s">
+      <c r="F22" s="136"/>
+      <c r="G22" s="137"/>
+    </row>
+    <row r="23" ht="21.0" customHeight="1">
+      <c r="A23" s="140"/>
+      <c r="B23" s="140"/>
+      <c r="E23" s="167"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="143"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="168"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="168" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>195</v>
       </c>
-      <c r="D20" s="144"/>
-      <c r="E20" s="149" t="s">
+    </row>
+    <row r="27">
+      <c r="A27" s="169" t="s">
         <v>196</v>
       </c>
-      <c r="F20" s="150"/>
-      <c r="G20" s="151"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="146"/>
-      <c r="B21" s="147"/>
-      <c r="C21" s="152"/>
-      <c r="D21" s="153"/>
-      <c r="E21" s="149" t="s">
-        <v>168</v>
-      </c>
-      <c r="F21" s="150"/>
-      <c r="G21" s="151"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="72"/>
-      <c r="B22" s="72"/>
-      <c r="E22" s="149" t="s">
+      <c r="B27" s="33" t="s">
         <v>197</v>
       </c>
-      <c r="F22" s="150"/>
-      <c r="G22" s="151"/>
-    </row>
-    <row r="23" ht="21.0" customHeight="1">
-      <c r="A23" s="72"/>
-      <c r="B23" s="72"/>
-      <c r="E23" s="161"/>
-      <c r="F23" s="155"/>
-      <c r="G23" s="156"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="162"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="162" t="s">
-        <v>136</v>
-      </c>
-      <c r="B26" s="33" t="s">
+    </row>
+    <row r="28">
+      <c r="A28" s="170" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="163" t="s">
+      <c r="B28" s="171" t="s">
         <v>199</v>
       </c>
-      <c r="B27" s="33" t="s">
+    </row>
+    <row r="29">
+      <c r="A29" s="158" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="164" t="s">
+      <c r="B29" s="33" t="s">
         <v>201</v>
       </c>
-      <c r="B28" s="165" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="77"/>
-      <c r="B29" s="33"/>
     </row>
     <row r="30">
-      <c r="A30" s="77"/>
+      <c r="A30" s="172"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
+  <mergeCells count="20">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:D8"/>
@@ -16200,17 +16318,19 @@
     <mergeCell ref="A11:B11"/>
     <mergeCell ref="A12:B12"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="A18:B18"/>
+    <mergeCell ref="E18:G18"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="B27:F27"/>
     <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B29:E29"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="E14:G14"/>
     <mergeCell ref="A15:B15"/>
+    <mergeCell ref="E15:G15"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A18:B18"/>
-    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="C17:D17"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
@@ -16227,404 +16347,404 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="166"/>
-      <c r="B2" s="166"/>
-      <c r="C2" s="166"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="168"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="167"/>
-      <c r="O2" s="166"/>
-      <c r="P2" s="166"/>
-      <c r="Q2" s="166"/>
-      <c r="R2" s="166"/>
+      <c r="A2" s="173"/>
+      <c r="B2" s="173"/>
+      <c r="C2" s="173"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="174"/>
+      <c r="K2" s="174"/>
+      <c r="L2" s="174"/>
+      <c r="M2" s="174"/>
+      <c r="N2" s="174"/>
+      <c r="O2" s="173"/>
+      <c r="P2" s="173"/>
+      <c r="Q2" s="173"/>
+      <c r="R2" s="173"/>
     </row>
     <row r="3">
-      <c r="A3" s="169"/>
-      <c r="B3" s="169"/>
-      <c r="C3" s="169"/>
-      <c r="D3" s="167"/>
-      <c r="E3" s="167"/>
-      <c r="F3" s="167"/>
-      <c r="G3" s="167"/>
-      <c r="H3" s="170"/>
-      <c r="I3" s="170"/>
-      <c r="J3" s="170"/>
-      <c r="K3" s="167"/>
-      <c r="L3" s="167"/>
-      <c r="M3" s="167"/>
-      <c r="N3" s="167"/>
-      <c r="O3" s="169"/>
-      <c r="P3" s="169"/>
-      <c r="Q3" s="169"/>
-      <c r="R3" s="166"/>
+      <c r="A3" s="176"/>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="174"/>
+      <c r="E3" s="174"/>
+      <c r="F3" s="174"/>
+      <c r="G3" s="174"/>
+      <c r="H3" s="177"/>
+      <c r="I3" s="177"/>
+      <c r="J3" s="177"/>
+      <c r="K3" s="174"/>
+      <c r="L3" s="174"/>
+      <c r="M3" s="174"/>
+      <c r="N3" s="174"/>
+      <c r="O3" s="176"/>
+      <c r="P3" s="176"/>
+      <c r="Q3" s="176"/>
+      <c r="R3" s="173"/>
     </row>
     <row r="4">
-      <c r="A4" s="169"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="169"/>
-      <c r="D4" s="167"/>
-      <c r="E4" s="167"/>
-      <c r="F4" s="167"/>
-      <c r="G4" s="167"/>
-      <c r="H4" s="170"/>
-      <c r="I4" s="171" t="s">
+      <c r="A4" s="176"/>
+      <c r="B4" s="176"/>
+      <c r="C4" s="176"/>
+      <c r="D4" s="174"/>
+      <c r="E4" s="174"/>
+      <c r="F4" s="174"/>
+      <c r="G4" s="174"/>
+      <c r="H4" s="177"/>
+      <c r="I4" s="178" t="s">
+        <v>202</v>
+      </c>
+      <c r="J4" s="177"/>
+      <c r="K4" s="174"/>
+      <c r="L4" s="174"/>
+      <c r="M4" s="174"/>
+      <c r="N4" s="174"/>
+      <c r="O4" s="176"/>
+      <c r="P4" s="176"/>
+      <c r="Q4" s="176"/>
+      <c r="R4" s="173"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="176"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="174"/>
+      <c r="E5" s="174"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="174"/>
+      <c r="H5" s="177"/>
+      <c r="I5" s="177"/>
+      <c r="J5" s="177"/>
+      <c r="K5" s="174"/>
+      <c r="L5" s="174"/>
+      <c r="M5" s="174"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="176"/>
+      <c r="P5" s="176"/>
+      <c r="Q5" s="176"/>
+      <c r="R5" s="173"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="174"/>
+      <c r="H6" s="174"/>
+      <c r="I6" s="175" t="s">
         <v>203</v>
       </c>
-      <c r="J4" s="170"/>
-      <c r="K4" s="167"/>
-      <c r="L4" s="167"/>
-      <c r="M4" s="167"/>
-      <c r="N4" s="167"/>
-      <c r="O4" s="169"/>
-      <c r="P4" s="169"/>
-      <c r="Q4" s="169"/>
-      <c r="R4" s="166"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="169"/>
-      <c r="B5" s="169"/>
-      <c r="C5" s="169"/>
-      <c r="D5" s="167"/>
-      <c r="E5" s="167"/>
-      <c r="F5" s="167"/>
-      <c r="G5" s="167"/>
-      <c r="H5" s="170"/>
-      <c r="I5" s="170"/>
-      <c r="J5" s="170"/>
-      <c r="K5" s="167"/>
-      <c r="L5" s="167"/>
-      <c r="M5" s="167"/>
-      <c r="N5" s="167"/>
-      <c r="O5" s="169"/>
-      <c r="P5" s="169"/>
-      <c r="Q5" s="169"/>
-      <c r="R5" s="166"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="169"/>
-      <c r="B6" s="169"/>
-      <c r="C6" s="169"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="168" t="s">
+      <c r="J6" s="174"/>
+      <c r="K6" s="174"/>
+      <c r="L6" s="174"/>
+      <c r="M6" s="174"/>
+      <c r="N6" s="174"/>
+      <c r="O6" s="176"/>
+      <c r="P6" s="176"/>
+      <c r="Q6" s="176"/>
+      <c r="R6" s="173"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="176"/>
+      <c r="B7" s="176"/>
+      <c r="C7" s="176"/>
+      <c r="D7" s="174"/>
+      <c r="E7" s="174"/>
+      <c r="F7" s="174"/>
+      <c r="G7" s="174"/>
+      <c r="H7" s="174"/>
+      <c r="I7" s="174"/>
+      <c r="J7" s="174"/>
+      <c r="K7" s="174"/>
+      <c r="L7" s="174"/>
+      <c r="M7" s="174"/>
+      <c r="N7" s="174"/>
+      <c r="O7" s="176"/>
+      <c r="P7" s="176"/>
+      <c r="Q7" s="176"/>
+      <c r="R7" s="173"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="176"/>
+      <c r="B8" s="176"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="175" t="s">
         <v>204</v>
       </c>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="169"/>
-      <c r="P6" s="169"/>
-      <c r="Q6" s="169"/>
-      <c r="R6" s="166"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="169"/>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="167"/>
-      <c r="F7" s="167"/>
-      <c r="G7" s="167"/>
-      <c r="H7" s="167"/>
-      <c r="I7" s="167"/>
-      <c r="J7" s="167"/>
-      <c r="K7" s="167"/>
-      <c r="L7" s="167"/>
-      <c r="M7" s="167"/>
-      <c r="N7" s="167"/>
-      <c r="O7" s="169"/>
-      <c r="P7" s="169"/>
-      <c r="Q7" s="169"/>
-      <c r="R7" s="166"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="169"/>
-      <c r="B8" s="169"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="167"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="167"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="168" t="s">
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="176"/>
+      <c r="P8" s="176"/>
+      <c r="Q8" s="176"/>
+      <c r="R8" s="173"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="176"/>
+      <c r="B9" s="176"/>
+      <c r="C9" s="176"/>
+      <c r="D9" s="174"/>
+      <c r="E9" s="174"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="174"/>
+      <c r="H9" s="174"/>
+      <c r="I9" s="175" t="s">
         <v>205</v>
       </c>
-      <c r="J8" s="167"/>
-      <c r="K8" s="167"/>
-      <c r="L8" s="167"/>
-      <c r="M8" s="167"/>
-      <c r="N8" s="167"/>
-      <c r="O8" s="169"/>
-      <c r="P8" s="169"/>
-      <c r="Q8" s="169"/>
-      <c r="R8" s="166"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="169"/>
-      <c r="B9" s="169"/>
-      <c r="C9" s="169"/>
-      <c r="D9" s="167"/>
-      <c r="E9" s="167"/>
-      <c r="F9" s="167"/>
-      <c r="G9" s="167"/>
-      <c r="H9" s="167"/>
-      <c r="I9" s="168" t="s">
+      <c r="J9" s="174"/>
+      <c r="K9" s="174"/>
+      <c r="L9" s="174"/>
+      <c r="M9" s="174"/>
+      <c r="N9" s="174"/>
+      <c r="O9" s="176"/>
+      <c r="P9" s="176"/>
+      <c r="Q9" s="176"/>
+      <c r="R9" s="173"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="176"/>
+      <c r="B10" s="176"/>
+      <c r="C10" s="176"/>
+      <c r="D10" s="174"/>
+      <c r="E10" s="174"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="174"/>
+      <c r="H10" s="174"/>
+      <c r="I10" s="175" t="s">
         <v>206</v>
       </c>
-      <c r="J9" s="167"/>
-      <c r="K9" s="167"/>
-      <c r="L9" s="167"/>
-      <c r="M9" s="167"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="169"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="169"/>
-      <c r="R9" s="166"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="169"/>
-      <c r="B10" s="169"/>
-      <c r="C10" s="169"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="168" t="s">
+      <c r="J10" s="174"/>
+      <c r="K10" s="174"/>
+      <c r="L10" s="174"/>
+      <c r="M10" s="174"/>
+      <c r="N10" s="174"/>
+      <c r="O10" s="176"/>
+      <c r="P10" s="176"/>
+      <c r="Q10" s="176"/>
+      <c r="R10" s="173"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="176"/>
+      <c r="B11" s="176"/>
+      <c r="C11" s="176"/>
+      <c r="D11" s="174"/>
+      <c r="E11" s="174"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="174"/>
+      <c r="H11" s="174"/>
+      <c r="I11" s="175" t="s">
         <v>207</v>
       </c>
-      <c r="J10" s="167"/>
-      <c r="K10" s="167"/>
-      <c r="L10" s="167"/>
-      <c r="M10" s="167"/>
-      <c r="N10" s="167"/>
-      <c r="O10" s="169"/>
-      <c r="P10" s="169"/>
-      <c r="Q10" s="169"/>
-      <c r="R10" s="166"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="169"/>
-      <c r="B11" s="169"/>
-      <c r="C11" s="169"/>
-      <c r="D11" s="167"/>
-      <c r="E11" s="167"/>
-      <c r="F11" s="167"/>
-      <c r="G11" s="167"/>
-      <c r="H11" s="167"/>
-      <c r="I11" s="168" t="s">
+      <c r="J11" s="174"/>
+      <c r="K11" s="174"/>
+      <c r="L11" s="174"/>
+      <c r="M11" s="174"/>
+      <c r="N11" s="174"/>
+      <c r="O11" s="176"/>
+      <c r="P11" s="176"/>
+      <c r="Q11" s="176"/>
+      <c r="R11" s="173"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="176"/>
+      <c r="B12" s="176"/>
+      <c r="C12" s="176"/>
+      <c r="D12" s="174"/>
+      <c r="E12" s="174"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="174"/>
+      <c r="H12" s="174"/>
+      <c r="I12" s="175" t="s">
         <v>208</v>
       </c>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
-      <c r="O11" s="169"/>
-      <c r="P11" s="169"/>
-      <c r="Q11" s="169"/>
-      <c r="R11" s="166"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="169"/>
-      <c r="B12" s="169"/>
-      <c r="C12" s="169"/>
-      <c r="D12" s="167"/>
-      <c r="E12" s="167"/>
-      <c r="F12" s="167"/>
-      <c r="G12" s="167"/>
-      <c r="H12" s="167"/>
-      <c r="I12" s="168" t="s">
+      <c r="J12" s="174"/>
+      <c r="K12" s="174"/>
+      <c r="L12" s="174"/>
+      <c r="M12" s="174"/>
+      <c r="N12" s="174"/>
+      <c r="O12" s="176"/>
+      <c r="P12" s="176"/>
+      <c r="Q12" s="176"/>
+      <c r="R12" s="173"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="176"/>
+      <c r="B13" s="176"/>
+      <c r="C13" s="176"/>
+      <c r="D13" s="174"/>
+      <c r="E13" s="174"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="174"/>
+      <c r="H13" s="174"/>
+      <c r="I13" s="175" t="s">
         <v>209</v>
       </c>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="166"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="169"/>
-      <c r="B13" s="169"/>
-      <c r="C13" s="169"/>
-      <c r="D13" s="167"/>
-      <c r="E13" s="167"/>
-      <c r="F13" s="167"/>
-      <c r="G13" s="167"/>
-      <c r="H13" s="167"/>
-      <c r="I13" s="168" t="s">
+      <c r="J13" s="174"/>
+      <c r="K13" s="174"/>
+      <c r="L13" s="174"/>
+      <c r="M13" s="174"/>
+      <c r="N13" s="174"/>
+      <c r="O13" s="176"/>
+      <c r="P13" s="176"/>
+      <c r="Q13" s="176"/>
+      <c r="R13" s="173"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="176"/>
+      <c r="B14" s="176"/>
+      <c r="C14" s="176"/>
+      <c r="D14" s="174"/>
+      <c r="E14" s="174"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="175" t="s">
         <v>210</v>
       </c>
-      <c r="J13" s="167"/>
-      <c r="K13" s="167"/>
-      <c r="L13" s="167"/>
-      <c r="M13" s="167"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="166"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="169"/>
-      <c r="B14" s="169"/>
-      <c r="C14" s="169"/>
-      <c r="D14" s="167"/>
-      <c r="E14" s="167"/>
-      <c r="F14" s="167"/>
-      <c r="G14" s="167"/>
-      <c r="H14" s="168" t="s">
+      <c r="I14" s="174"/>
+      <c r="J14" s="174"/>
+      <c r="K14" s="174"/>
+      <c r="L14" s="174"/>
+      <c r="M14" s="174"/>
+      <c r="N14" s="174"/>
+      <c r="O14" s="176"/>
+      <c r="P14" s="176"/>
+      <c r="Q14" s="176"/>
+      <c r="R14" s="173"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="176"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="173"/>
+      <c r="D15" s="176"/>
+      <c r="E15" s="174"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="174"/>
+      <c r="H15" s="174"/>
+      <c r="I15" s="175" t="s">
         <v>211</v>
       </c>
-      <c r="I14" s="167"/>
-      <c r="J14" s="167"/>
-      <c r="K14" s="167"/>
-      <c r="L14" s="167"/>
-      <c r="M14" s="167"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="166"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="169"/>
-      <c r="B15" s="169"/>
-      <c r="C15" s="166"/>
-      <c r="D15" s="169"/>
-      <c r="E15" s="167"/>
-      <c r="F15" s="167"/>
-      <c r="G15" s="167"/>
-      <c r="H15" s="167"/>
-      <c r="I15" s="168" t="s">
-        <v>212</v>
-      </c>
-      <c r="J15" s="167"/>
-      <c r="K15" s="167"/>
-      <c r="L15" s="167"/>
-      <c r="M15" s="167"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="166"/>
+      <c r="J15" s="174"/>
+      <c r="K15" s="174"/>
+      <c r="L15" s="174"/>
+      <c r="M15" s="174"/>
+      <c r="N15" s="174"/>
+      <c r="O15" s="176"/>
+      <c r="P15" s="176"/>
+      <c r="Q15" s="176"/>
+      <c r="R15" s="173"/>
     </row>
     <row r="16">
-      <c r="A16" s="169"/>
-      <c r="B16" s="169"/>
-      <c r="C16" s="169"/>
-      <c r="D16" s="167"/>
-      <c r="E16" s="167"/>
-      <c r="F16" s="167"/>
-      <c r="G16" s="167"/>
-      <c r="H16" s="167"/>
-      <c r="I16" s="167"/>
-      <c r="J16" s="167"/>
-      <c r="K16" s="167"/>
-      <c r="L16" s="167"/>
-      <c r="M16" s="167"/>
-      <c r="N16" s="167"/>
-      <c r="O16" s="169"/>
-      <c r="P16" s="169"/>
-      <c r="Q16" s="169"/>
-      <c r="R16" s="166"/>
+      <c r="A16" s="176"/>
+      <c r="B16" s="176"/>
+      <c r="C16" s="176"/>
+      <c r="D16" s="174"/>
+      <c r="E16" s="174"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="174"/>
+      <c r="H16" s="174"/>
+      <c r="I16" s="174"/>
+      <c r="J16" s="174"/>
+      <c r="K16" s="174"/>
+      <c r="L16" s="174"/>
+      <c r="M16" s="174"/>
+      <c r="N16" s="174"/>
+      <c r="O16" s="176"/>
+      <c r="P16" s="176"/>
+      <c r="Q16" s="176"/>
+      <c r="R16" s="173"/>
     </row>
     <row r="17">
-      <c r="A17" s="169"/>
-      <c r="B17" s="169"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="167"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="167"/>
-      <c r="H17" s="167"/>
-      <c r="I17" s="167"/>
-      <c r="J17" s="167"/>
-      <c r="K17" s="167"/>
-      <c r="L17" s="167"/>
-      <c r="M17" s="167"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="169"/>
-      <c r="P17" s="169"/>
-      <c r="Q17" s="169"/>
-      <c r="R17" s="166"/>
+      <c r="A17" s="176"/>
+      <c r="B17" s="176"/>
+      <c r="C17" s="176"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="174"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="174"/>
+      <c r="M17" s="174"/>
+      <c r="N17" s="174"/>
+      <c r="O17" s="176"/>
+      <c r="P17" s="176"/>
+      <c r="Q17" s="176"/>
+      <c r="R17" s="173"/>
     </row>
     <row r="18">
-      <c r="A18" s="169"/>
-      <c r="B18" s="169"/>
-      <c r="C18" s="169"/>
-      <c r="D18" s="167"/>
-      <c r="E18" s="167"/>
-      <c r="F18" s="167"/>
-      <c r="G18" s="167"/>
-      <c r="H18" s="167"/>
-      <c r="I18" s="167"/>
-      <c r="J18" s="167"/>
-      <c r="K18" s="167"/>
-      <c r="L18" s="167"/>
-      <c r="M18" s="167"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="169"/>
-      <c r="Q18" s="169"/>
-      <c r="R18" s="166"/>
+      <c r="A18" s="176"/>
+      <c r="B18" s="176"/>
+      <c r="C18" s="176"/>
+      <c r="D18" s="174"/>
+      <c r="E18" s="174"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="174"/>
+      <c r="H18" s="174"/>
+      <c r="I18" s="174"/>
+      <c r="J18" s="174"/>
+      <c r="K18" s="174"/>
+      <c r="L18" s="174"/>
+      <c r="M18" s="174"/>
+      <c r="N18" s="174"/>
+      <c r="O18" s="176"/>
+      <c r="P18" s="176"/>
+      <c r="Q18" s="176"/>
+      <c r="R18" s="173"/>
     </row>
     <row r="19">
-      <c r="A19" s="169"/>
-      <c r="B19" s="169"/>
-      <c r="C19" s="169"/>
-      <c r="D19" s="169"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="169"/>
-      <c r="G19" s="169"/>
-      <c r="H19" s="169"/>
-      <c r="I19" s="169"/>
-      <c r="J19" s="169"/>
-      <c r="K19" s="169"/>
-      <c r="L19" s="169"/>
-      <c r="M19" s="169"/>
-      <c r="N19" s="169"/>
-      <c r="O19" s="169"/>
-      <c r="P19" s="169"/>
-      <c r="Q19" s="169"/>
-      <c r="R19" s="166"/>
+      <c r="A19" s="176"/>
+      <c r="B19" s="176"/>
+      <c r="C19" s="176"/>
+      <c r="D19" s="176"/>
+      <c r="E19" s="176"/>
+      <c r="F19" s="176"/>
+      <c r="G19" s="176"/>
+      <c r="H19" s="176"/>
+      <c r="I19" s="176"/>
+      <c r="J19" s="176"/>
+      <c r="K19" s="176"/>
+      <c r="L19" s="176"/>
+      <c r="M19" s="176"/>
+      <c r="N19" s="176"/>
+      <c r="O19" s="176"/>
+      <c r="P19" s="176"/>
+      <c r="Q19" s="176"/>
+      <c r="R19" s="173"/>
     </row>
     <row r="20">
-      <c r="A20" s="166"/>
-      <c r="B20" s="166"/>
-      <c r="C20" s="166"/>
-      <c r="D20" s="166"/>
-      <c r="E20" s="166"/>
-      <c r="F20" s="166"/>
-      <c r="G20" s="166"/>
-      <c r="H20" s="166"/>
-      <c r="I20" s="166"/>
-      <c r="J20" s="166"/>
-      <c r="K20" s="166"/>
-      <c r="L20" s="166"/>
-      <c r="M20" s="166"/>
-      <c r="N20" s="166"/>
-      <c r="O20" s="166"/>
-      <c r="P20" s="166"/>
-      <c r="Q20" s="166"/>
-      <c r="R20" s="166"/>
+      <c r="A20" s="173"/>
+      <c r="B20" s="173"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
+      <c r="E20" s="173"/>
+      <c r="F20" s="173"/>
+      <c r="G20" s="173"/>
+      <c r="H20" s="173"/>
+      <c r="I20" s="173"/>
+      <c r="J20" s="173"/>
+      <c r="K20" s="173"/>
+      <c r="L20" s="173"/>
+      <c r="M20" s="173"/>
+      <c r="N20" s="173"/>
+      <c r="O20" s="173"/>
+      <c r="P20" s="173"/>
+      <c r="Q20" s="173"/>
+      <c r="R20" s="173"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
